--- a/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
+++ b/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="268">
   <si>
     <t>Repositorio de No Conformidades</t>
   </si>
@@ -658,6 +658,372 @@
   </si>
   <si>
     <t>Historial de Cambios</t>
+  </si>
+  <si>
+    <t>CN_028</t>
+  </si>
+  <si>
+    <t>CN_029</t>
+  </si>
+  <si>
+    <t>CN_030</t>
+  </si>
+  <si>
+    <t>CN_031</t>
+  </si>
+  <si>
+    <t>CN_032</t>
+  </si>
+  <si>
+    <t>CN_033</t>
+  </si>
+  <si>
+    <t>CN_034</t>
+  </si>
+  <si>
+    <t>CN_035</t>
+  </si>
+  <si>
+    <t>CN_036</t>
+  </si>
+  <si>
+    <t>CN_037</t>
+  </si>
+  <si>
+    <t>CN_038</t>
+  </si>
+  <si>
+    <t>CN_039</t>
+  </si>
+  <si>
+    <t>CN_040</t>
+  </si>
+  <si>
+    <t>CN_041</t>
+  </si>
+  <si>
+    <t>CN_042</t>
+  </si>
+  <si>
+    <t>CN_043</t>
+  </si>
+  <si>
+    <t>CN_044</t>
+  </si>
+  <si>
+    <t>CN_045</t>
+  </si>
+  <si>
+    <t>CN_046</t>
+  </si>
+  <si>
+    <t>CN_047</t>
+  </si>
+  <si>
+    <t>CN_048</t>
+  </si>
+  <si>
+    <t>CN_049</t>
+  </si>
+  <si>
+    <t>CN_050</t>
+  </si>
+  <si>
+    <t>CN_051</t>
+  </si>
+  <si>
+    <t>CN_052</t>
+  </si>
+  <si>
+    <t>CN_053</t>
+  </si>
+  <si>
+    <t>CN_054</t>
+  </si>
+  <si>
+    <t>CN_055</t>
+  </si>
+  <si>
+    <t>CN_056</t>
+  </si>
+  <si>
+    <t>CN_057</t>
+  </si>
+  <si>
+    <t>CN_058</t>
+  </si>
+  <si>
+    <t>CN_059</t>
+  </si>
+  <si>
+    <t>CN_060</t>
+  </si>
+  <si>
+    <t>CN_061</t>
+  </si>
+  <si>
+    <t>CN_062</t>
+  </si>
+  <si>
+    <t>CN_063</t>
+  </si>
+  <si>
+    <t>CN_064</t>
+  </si>
+  <si>
+    <t>CN_065</t>
+  </si>
+  <si>
+    <t>CN_066</t>
+  </si>
+  <si>
+    <t>CN_067</t>
+  </si>
+  <si>
+    <t>CN_068</t>
+  </si>
+  <si>
+    <t>CN_069</t>
+  </si>
+  <si>
+    <t>CN_070</t>
+  </si>
+  <si>
+    <t>CN_071</t>
+  </si>
+  <si>
+    <t>CN_072</t>
+  </si>
+  <si>
+    <t>CN_073</t>
+  </si>
+  <si>
+    <t>CN_074</t>
+  </si>
+  <si>
+    <t>CN_075</t>
+  </si>
+  <si>
+    <t>CN_076</t>
+  </si>
+  <si>
+    <t>CN_077</t>
+  </si>
+  <si>
+    <t>CN_078</t>
+  </si>
+  <si>
+    <t>CN_079</t>
+  </si>
+  <si>
+    <t>CN_080</t>
+  </si>
+  <si>
+    <t>CN_081</t>
+  </si>
+  <si>
+    <t>CN_082</t>
+  </si>
+  <si>
+    <t>CN_083</t>
+  </si>
+  <si>
+    <t>CN_084</t>
+  </si>
+  <si>
+    <t>CN_085</t>
+  </si>
+  <si>
+    <t>CN_086</t>
+  </si>
+  <si>
+    <t>CN_087</t>
+  </si>
+  <si>
+    <t>CN_088</t>
+  </si>
+  <si>
+    <t>CN_089</t>
+  </si>
+  <si>
+    <t>CN_090</t>
+  </si>
+  <si>
+    <t>CN_091</t>
+  </si>
+  <si>
+    <t>CN_092</t>
+  </si>
+  <si>
+    <t>CN_093</t>
+  </si>
+  <si>
+    <t>CN_094</t>
+  </si>
+  <si>
+    <t>CN_095</t>
+  </si>
+  <si>
+    <t>CN_096</t>
+  </si>
+  <si>
+    <t>CN_097</t>
+  </si>
+  <si>
+    <t>CN_098</t>
+  </si>
+  <si>
+    <t>CN_099</t>
+  </si>
+  <si>
+    <t>CN_100</t>
+  </si>
+  <si>
+    <t>proyectoCar</t>
+  </si>
+  <si>
+    <t>IRJ</t>
+  </si>
+  <si>
+    <t>Herramienta para la administración de riesgos</t>
+  </si>
+  <si>
+    <t>Asignación inadecuada del responsable del riesgo.</t>
+  </si>
+  <si>
+    <t>La persona a la que se le asigno el riesgo no pudo darle solución al mismo por falta de conocimiento necesario.</t>
+  </si>
+  <si>
+    <t>El marco de tiempo no se ajusta  al requerido.</t>
+  </si>
+  <si>
+    <t>El tiempo asignado no contrasta con el requerido para dar solución al riesgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coherencia en la redacción. </t>
+  </si>
+  <si>
+    <t>No existe una coherencia entre los pasos descritos para la mitigación.</t>
+  </si>
+  <si>
+    <t>ENM</t>
+  </si>
+  <si>
+    <t>Manejo de fechas.</t>
+  </si>
+  <si>
+    <t>No se tiene un adecuado control con las fechas manejadas para la mitigación ajustandose a la duración del proyecto.</t>
+  </si>
+  <si>
+    <t>Formato de herramienta.</t>
+  </si>
+  <si>
+    <t>No utilizar el formato establecido para la detección de riesgos.</t>
+  </si>
+  <si>
+    <t>ProyectoCAR</t>
+  </si>
+  <si>
+    <t>Planeación del Proyecto</t>
+  </si>
+  <si>
+    <t>Organigrama</t>
+  </si>
+  <si>
+    <t>Nombres de los puestos en el organigrama.</t>
+  </si>
+  <si>
+    <t>No se cuenta con nombres de los puestos en el organigrama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nombres de los responsables de los puestos.</t>
+  </si>
+  <si>
+    <t>No se cuenta con nombres de los responsables de los puestos en el organigrama.</t>
+  </si>
+  <si>
+    <t>Nombre de la empresa.</t>
+  </si>
+  <si>
+    <t>No se cuenta con el nombre de la empresa a la que pertenece el organigrama.</t>
+  </si>
+  <si>
+    <t>Apartado de desglose de actividades.</t>
+  </si>
+  <si>
+    <t>No se cuenta con un desglose de actividades de los puestos.</t>
+  </si>
+  <si>
+    <t>Áreas y responsables necesarias, para llevar a cabo el proyecto.</t>
+  </si>
+  <si>
+    <t>No se cuenta con uno o varios responsables, para llevar a cabo el proyecto.</t>
+  </si>
+  <si>
+    <t>JAGC</t>
+  </si>
+  <si>
+    <t>Mala estructura de la información</t>
+  </si>
+  <si>
+    <t>No sigue la estructura de la platilla de la información que se presenta</t>
+  </si>
+  <si>
+    <t>Falta de firmas de autorización</t>
+  </si>
+  <si>
+    <t>No cuenta con las firmas de autorización del proyecto</t>
+  </si>
+  <si>
+    <t>Falta de nombres de equipo desarrollador</t>
+  </si>
+  <si>
+    <t>No cuenta con los nombres del quipo de trabajo</t>
+  </si>
+  <si>
+    <t>Falta fecha de entrega del proyecto</t>
+  </si>
+  <si>
+    <t>No tiene fecha de entrega del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta la descripcion del alcance </t>
+  </si>
+  <si>
+    <t>No tiene una especificacion del alcance</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Clasificacion de las fases del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El alcance no clasifica de manera especìfica las fases con sus respectivos  sub-entregables. </t>
+  </si>
+  <si>
+    <t>Desglose incompleto de sub-entregables</t>
+  </si>
+  <si>
+    <t>Los sub-entregables generados dentro de una etapa en tercer orden no estan específicados cada uno.</t>
+  </si>
+  <si>
+    <t>Descripción y criterios.</t>
+  </si>
+  <si>
+    <t>La descripción y los criterios de las etapas con sus respectivos sub-entregables son poco claros y especificos en su redacción.</t>
+  </si>
+  <si>
+    <t>Ajuste de tiempo al alcance del proyecto.</t>
+  </si>
+  <si>
+    <t>El alcance especificados en sub-entregables generados no se ajustan al tiempo especificado de duración contemplado para el proyecto.</t>
+  </si>
+  <si>
+    <t>No contiene un control de cambios.</t>
+  </si>
+  <si>
+    <t>El alcance elaborado no contiene un control de cambios para tomar en cuenta el hisorial de modificaciones que puedan realizarsele al documento.</t>
   </si>
 </sst>
 </file>
@@ -753,7 +1119,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +1129,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,15 +1340,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -989,6 +1358,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,92 +1457,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1440,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1454,27 +1832,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="43"/>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1484,17 +1862,17 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="8">
@@ -1504,17 +1882,17 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1524,7 +1902,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B12" s="4"/>
@@ -1538,42 +1916,42 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="18">
         <v>42196</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
@@ -1584,42 +1962,42 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="18">
         <v>42196</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
@@ -1630,52 +2008,52 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="19" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="8">
         <v>42196</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1711,101 +2089,101 @@
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="23" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="36">
         <v>42196</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="33">
         <v>42196</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
     </row>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1815,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M33"/>
+  <dimension ref="A2:N106"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,27 +2204,28 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" customWidth="1"/>
+    <col min="13" max="13" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1876,93 +2255,93 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>42151</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11">
+      <c r="I7" s="4"/>
+      <c r="J7" s="7">
         <v>42152</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -1976,7 +2355,7 @@
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2015,7 +2394,7 @@
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2050,11 +2429,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2089,11 +2468,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2132,7 +2511,7 @@
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2167,11 +2546,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2206,784 +2585,1849 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <v>42152</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="14">
+      <c r="I14" s="9"/>
+      <c r="J14" s="11">
         <v>42153</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="11">
         <v>42152</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="14">
+      <c r="I15" s="9"/>
+      <c r="J15" s="11">
         <v>42153</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="11">
         <v>42152</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="14">
+      <c r="I16" s="9"/>
+      <c r="J16" s="11">
         <v>42153</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="11">
         <v>42152</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="14">
+      <c r="I17" s="9"/>
+      <c r="J17" s="11">
         <v>42153</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="11">
         <v>42152</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="14">
+      <c r="I18" s="9"/>
+      <c r="J18" s="11">
         <v>42184</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="11">
         <v>42153</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="14">
+      <c r="I19" s="9"/>
+      <c r="J19" s="11">
         <v>42154</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="11">
         <v>42153</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="14">
+      <c r="I20" s="9"/>
+      <c r="J20" s="11">
         <v>42154</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="11">
         <v>42153</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14">
+      <c r="I21" s="9"/>
+      <c r="J21" s="11">
         <v>42154</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="11">
         <v>42153</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="14">
+      <c r="I22" s="9"/>
+      <c r="J22" s="11">
         <v>42154</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <v>42184</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="14">
+      <c r="I23" s="9"/>
+      <c r="J23" s="11">
         <v>42154</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="11">
         <v>42153</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14">
+      <c r="I24" s="9"/>
+      <c r="J24" s="11">
         <v>42154</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="11">
         <v>42153</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14">
+      <c r="I25" s="9"/>
+      <c r="J25" s="11">
         <v>42154</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="11">
         <v>42153</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="14">
+      <c r="I26" s="9"/>
+      <c r="J26" s="11">
         <v>42154</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="11">
         <v>42154</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="14">
+      <c r="I27" s="9"/>
+      <c r="J27" s="11">
         <v>42155</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="11">
         <v>42154</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="14">
+      <c r="I28" s="9"/>
+      <c r="J28" s="11">
         <v>42155</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="11">
         <v>42154</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="14">
+      <c r="I29" s="9"/>
+      <c r="J29" s="11">
         <v>42155</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="11">
         <v>42154</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="14">
+      <c r="I30" s="9"/>
+      <c r="J30" s="11">
         <v>42155</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="11">
         <v>42154</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="14">
+      <c r="I31" s="9"/>
+      <c r="J31" s="11">
         <v>42155</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="11">
         <v>42154</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="14">
+      <c r="I32" s="9"/>
+      <c r="J32" s="11">
         <v>42155</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:14" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="11">
         <v>42154</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="14">
+      <c r="I33" s="9"/>
+      <c r="J33" s="11">
         <v>42155</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="9" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="N34" s="48"/>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="N35" s="48"/>
+    </row>
+    <row r="36" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="N36" s="48"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="48"/>
+    </row>
+    <row r="38" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N38" s="48"/>
+    </row>
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="N39" s="48"/>
+    </row>
+    <row r="40" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="N40" s="48"/>
+    </row>
+    <row r="41" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="N41" s="48"/>
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="N42" s="48"/>
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N43" s="48"/>
+    </row>
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="N44" s="48"/>
+    </row>
+    <row r="45" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N45" s="48"/>
+    </row>
+    <row r="46" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="N46" s="48"/>
+    </row>
+    <row r="47" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="N47" s="48"/>
+    </row>
+    <row r="48" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="N48" s="48"/>
+    </row>
+    <row r="49" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I49" s="48"/>
+      <c r="J49" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N49" s="48"/>
+    </row>
+    <row r="50" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I50" s="48"/>
+      <c r="J50" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="N50" s="48"/>
+    </row>
+    <row r="51" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I51" s="48"/>
+      <c r="J51" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="N51" s="48"/>
+    </row>
+    <row r="52" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I52" s="48"/>
+      <c r="J52" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="N52" s="48"/>
+    </row>
+    <row r="53" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="11">
+        <v>42151</v>
+      </c>
+      <c r="I53" s="48"/>
+      <c r="J53" s="11">
+        <v>42152</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="N53" s="48"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2992,9 +4436,12 @@
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="J5:M5"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G33">
       <formula1>$Q$19:$Q$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G43">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
+++ b/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="313">
   <si>
     <t>Repositorio de No Conformidades</t>
   </si>
@@ -879,9 +879,6 @@
     <t>CN_100</t>
   </si>
   <si>
-    <t>proyectoCar</t>
-  </si>
-  <si>
     <t>IRJ</t>
   </si>
   <si>
@@ -921,9 +918,6 @@
     <t>No utilizar el formato establecido para la detección de riesgos.</t>
   </si>
   <si>
-    <t>ProyectoCAR</t>
-  </si>
-  <si>
     <t>Planeación del Proyecto</t>
   </si>
   <si>
@@ -1024,13 +1018,154 @@
   </si>
   <si>
     <t>El alcance elaborado no contiene un control de cambios para tomar en cuenta el hisorial de modificaciones que puedan realizarsele al documento.</t>
+  </si>
+  <si>
+    <t>Planeacion del proyecto</t>
+  </si>
+  <si>
+    <t>AEGG</t>
+  </si>
+  <si>
+    <t>Matriz de comunicaciones</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>Se encontró errores ortográficos en documento.</t>
+  </si>
+  <si>
+    <t>Entregables del proyecto</t>
+  </si>
+  <si>
+    <t>No cuenta con todos los entregables para cumplir las especificaciones del  proyecto.</t>
+  </si>
+  <si>
+    <t>Módulos del proyecto</t>
+  </si>
+  <si>
+    <t>No cuenta con los módulos que se planifico en WBS de desarrolló.</t>
+  </si>
+  <si>
+    <t>Personal encargado</t>
+  </si>
+  <si>
+    <t>No especifica quien es el encargado de cada área.</t>
+  </si>
+  <si>
+    <t>Formato de entrega</t>
+  </si>
+  <si>
+    <t>No especifica qué tipo de formato se va entregar cada entregable.</t>
+  </si>
+  <si>
+    <t>Administración de la configuración</t>
+  </si>
+  <si>
+    <t>EBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de cambio </t>
+  </si>
+  <si>
+    <t>Se encontró errores ortográficos en la redacción del documento.</t>
+  </si>
+  <si>
+    <t>Falta de información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cuenta con campos más específicos que  proporcionen más datos en proceso del cambio del proyecto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contiene un formato especifico y claro y concreto para llevar a cabo una solicitud cambio. </t>
+  </si>
+  <si>
+    <t>Especificación  de funciones</t>
+  </si>
+  <si>
+    <t>No especifican quien va realizar el cambio ni quien autoriza dicho cambio.</t>
+  </si>
+  <si>
+    <t>Tiempo de entrega</t>
+  </si>
+  <si>
+    <t>No existe  una especificación claramente en que tiempo se llevara a cabo el  cambió  en del proyecto.</t>
+  </si>
+  <si>
+    <t>Gestión de requerimientos</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>Diagramas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortografía </t>
+  </si>
+  <si>
+    <t>Se encontró errores ortográficos en los diagramas.</t>
+  </si>
+  <si>
+    <t>Relación</t>
+  </si>
+  <si>
+    <t>No hay una buena relación y no se distingue con que clase está relacionada y la base de datos no funciona apropiadamente en el proyecto.</t>
+  </si>
+  <si>
+    <t>Actualización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No informar de los cambios en los diagramas a los desarrolladores del proyecto. </t>
+  </si>
+  <si>
+    <t>Interpretación de los diagramas</t>
+  </si>
+  <si>
+    <t>No especificar claramente los diagramas con su simbología correcta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño </t>
+  </si>
+  <si>
+    <t>No realizar correctamente el diseño de el diagrama afecta al todo el proceso de programación.</t>
+  </si>
+  <si>
+    <t>Plan administración de riesgos</t>
+  </si>
+  <si>
+    <t>ortografía y semántica</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>No especificar claramente donde está  cada uno de los documentos en el repositorio.</t>
+  </si>
+  <si>
+    <t>Funciones</t>
+  </si>
+  <si>
+    <t>No especifico  claramente las funciones de cada uno de los integrantes que participara en la planeación de riesgos.</t>
+  </si>
+  <si>
+    <t>Modificaciones</t>
+  </si>
+  <si>
+    <t>No realizar cambios en la estructura de las plantilla.</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>No realizar cambios en las actividades o incluir más dependiendo el caso que sean más claras y concisas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,8 +1253,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,6 +1287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1427,6 +1579,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1457,13 +1618,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1832,21 +2005,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="46"/>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1916,10 +2089,10 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
@@ -1962,10 +2135,10 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
@@ -2008,12 +2181,12 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -2195,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,21 +2384,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2255,23 +2428,23 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -2313,10 +2486,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2352,10 +2525,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2391,10 +2564,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2430,10 +2603,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2469,10 +2642,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2508,10 +2681,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2547,10 +2720,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2586,10 +2759,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2625,10 +2798,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2664,10 +2837,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -2703,10 +2876,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -2742,10 +2915,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -2781,10 +2954,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -2820,10 +2993,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -2859,10 +3032,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -2898,10 +3071,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -2937,10 +3110,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2976,10 +3149,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3015,10 +3188,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -3054,10 +3227,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -3093,10 +3266,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -3132,10 +3305,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -3171,10 +3344,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -3210,10 +3383,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -3249,10 +3422,10 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -3288,10 +3461,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -3327,10 +3500,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -3366,11 +3539,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>219</v>
+      <c r="B34" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>16</v>
@@ -3379,10 +3552,10 @@
         <v>17</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>20</v>
@@ -3398,19 +3571,19 @@
         <v>21</v>
       </c>
       <c r="L34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="N34" s="48"/>
+      <c r="N34" s="38"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="49" t="s">
-        <v>219</v>
+      <c r="B35" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>16</v>
@@ -3419,10 +3592,10 @@
         <v>17</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>20</v>
@@ -3438,19 +3611,19 @@
         <v>21</v>
       </c>
       <c r="L35" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="M35" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="N35" s="48"/>
+      <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="49" t="s">
-        <v>219</v>
+      <c r="B36" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>16</v>
@@ -3459,10 +3632,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>221</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>20</v>
@@ -3478,19 +3651,19 @@
         <v>21</v>
       </c>
       <c r="L36" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="N36" s="48"/>
+      <c r="N36" s="38"/>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>219</v>
+      <c r="B37" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>16</v>
@@ -3499,10 +3672,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>20</v>
@@ -3518,19 +3691,19 @@
         <v>39</v>
       </c>
       <c r="L37" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="M37" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="N37" s="48"/>
+      <c r="N37" s="38"/>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="49" t="s">
-        <v>219</v>
+      <c r="B38" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>16</v>
@@ -3539,10 +3712,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>20</v>
@@ -3558,31 +3731,31 @@
         <v>21</v>
       </c>
       <c r="L38" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M38" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="N38" s="48"/>
+      <c r="N38" s="38"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="49" t="s">
-        <v>233</v>
+      <c r="B39" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>20</v>
@@ -3598,31 +3771,31 @@
         <v>21</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="N39" s="48"/>
+        <v>235</v>
+      </c>
+      <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="49" t="s">
-        <v>233</v>
+      <c r="B40" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>20</v>
@@ -3638,31 +3811,31 @@
         <v>21</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="N40" s="48"/>
+        <v>237</v>
+      </c>
+      <c r="N40" s="38"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="49" t="s">
-        <v>233</v>
+      <c r="B41" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>20</v>
@@ -3678,31 +3851,31 @@
         <v>21</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="N41" s="48"/>
+        <v>239</v>
+      </c>
+      <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="49" t="s">
-        <v>233</v>
+      <c r="B42" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>20</v>
@@ -3718,31 +3891,31 @@
         <v>21</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="N42" s="48"/>
+        <v>241</v>
+      </c>
+      <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="49" t="s">
-        <v>233</v>
+      <c r="B43" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>20</v>
@@ -3758,19 +3931,19 @@
         <v>21</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="N43" s="48"/>
+        <v>243</v>
+      </c>
+      <c r="N43" s="38"/>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="49" t="s">
-        <v>219</v>
+      <c r="B44" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>16</v>
@@ -3779,7 +3952,7 @@
         <v>17</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>19</v>
@@ -3798,19 +3971,19 @@
         <v>21</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="N44" s="48"/>
+        <v>246</v>
+      </c>
+      <c r="N44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="49" t="s">
-        <v>219</v>
+      <c r="B45" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>16</v>
@@ -3819,7 +3992,7 @@
         <v>17</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>19</v>
@@ -3838,19 +4011,19 @@
         <v>21</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="N45" s="48"/>
+        <v>248</v>
+      </c>
+      <c r="N45" s="38"/>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="49" t="s">
-        <v>219</v>
+      <c r="B46" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>16</v>
@@ -3859,7 +4032,7 @@
         <v>17</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>19</v>
@@ -3878,19 +4051,19 @@
         <v>21</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="N46" s="48"/>
+        <v>250</v>
+      </c>
+      <c r="N46" s="38"/>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="49" t="s">
-        <v>219</v>
+      <c r="B47" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>16</v>
@@ -3899,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>19</v>
@@ -3918,19 +4091,19 @@
         <v>21</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="N47" s="48"/>
+        <v>252</v>
+      </c>
+      <c r="N47" s="38"/>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="49" t="s">
-        <v>219</v>
+      <c r="B48" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>16</v>
@@ -3939,7 +4112,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>19</v>
@@ -3958,19 +4131,19 @@
         <v>21</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="N48" s="48"/>
+        <v>254</v>
+      </c>
+      <c r="N48" s="38"/>
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="49" t="s">
-        <v>219</v>
+      <c r="B49" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>16</v>
@@ -3979,10 +4152,10 @@
         <v>17</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>20</v>
@@ -3990,7 +4163,7 @@
       <c r="H49" s="11">
         <v>42151</v>
       </c>
-      <c r="I49" s="48"/>
+      <c r="I49" s="38"/>
       <c r="J49" s="11">
         <v>42152</v>
       </c>
@@ -3998,19 +4171,19 @@
         <v>21</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="N49" s="48"/>
+        <v>257</v>
+      </c>
+      <c r="N49" s="38"/>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="49" t="s">
-        <v>219</v>
+      <c r="B50" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>16</v>
@@ -4019,10 +4192,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>20</v>
@@ -4030,7 +4203,7 @@
       <c r="H50" s="11">
         <v>42151</v>
       </c>
-      <c r="I50" s="48"/>
+      <c r="I50" s="38"/>
       <c r="J50" s="11">
         <v>42152</v>
       </c>
@@ -4038,19 +4211,19 @@
         <v>21</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="N50" s="48"/>
+        <v>259</v>
+      </c>
+      <c r="N50" s="38"/>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="49" t="s">
-        <v>219</v>
+      <c r="B51" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>16</v>
@@ -4059,10 +4232,10 @@
         <v>17</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>20</v>
@@ -4070,7 +4243,7 @@
       <c r="H51" s="11">
         <v>42151</v>
       </c>
-      <c r="I51" s="48"/>
+      <c r="I51" s="38"/>
       <c r="J51" s="11">
         <v>42152</v>
       </c>
@@ -4078,19 +4251,19 @@
         <v>21</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="N51" s="48"/>
+        <v>261</v>
+      </c>
+      <c r="N51" s="38"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="49" t="s">
-        <v>219</v>
+      <c r="B52" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>16</v>
@@ -4099,10 +4272,10 @@
         <v>17</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>20</v>
@@ -4110,7 +4283,7 @@
       <c r="H52" s="11">
         <v>42151</v>
       </c>
-      <c r="I52" s="48"/>
+      <c r="I52" s="38"/>
       <c r="J52" s="11">
         <v>42152</v>
       </c>
@@ -4118,19 +4291,19 @@
         <v>21</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="N52" s="48"/>
+        <v>263</v>
+      </c>
+      <c r="N52" s="38"/>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="49" t="s">
-        <v>219</v>
+      <c r="B53" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>16</v>
@@ -4139,10 +4312,10 @@
         <v>17</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>78</v>
@@ -4150,7 +4323,7 @@
       <c r="H53" s="11">
         <v>42151</v>
       </c>
-      <c r="I53" s="48"/>
+      <c r="I53" s="38"/>
       <c r="J53" s="11">
         <v>42152</v>
       </c>
@@ -4158,276 +4331,1051 @@
         <v>21</v>
       </c>
       <c r="L53" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="N53" s="38"/>
+    </row>
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="M53" s="9" t="s">
+      <c r="E54" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="N53" s="48"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="F54" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I54" s="52"/>
+      <c r="J54" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K54" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L54" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="B55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I55" s="52"/>
+      <c r="J55" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K55" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="M55" s="51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="B56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I56" s="52"/>
+      <c r="J56" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K56" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="M56" s="51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="B57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I57" s="52"/>
+      <c r="J57" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K57" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="M57" s="51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="39" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="B58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I58" s="52"/>
+      <c r="J58" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K58" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L58" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="M58" s="51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="39" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="B59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I59" s="52"/>
+      <c r="J59" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K59" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L59" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" s="51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="B60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I60" s="52"/>
+      <c r="J60" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K60" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L60" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="M60" s="51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="B61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F61" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="54">
+        <v>42193</v>
+      </c>
+      <c r="I61" s="52"/>
+      <c r="J61" s="54">
+        <v>42193</v>
+      </c>
+      <c r="K61" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L61" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="M61" s="51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="B62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F62" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="52"/>
+      <c r="H62" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I62" s="52"/>
+      <c r="J62" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K62" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L62" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="M62" s="51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="B63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="G63" s="52"/>
+      <c r="H63" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I63" s="52"/>
+      <c r="J63" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K63" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L63" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="M63" s="51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="B64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G64" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I64" s="52"/>
+      <c r="J64" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K64" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L64" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="M64" s="51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="B65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F65" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I65" s="52"/>
+      <c r="J65" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L65" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="M65" s="51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="B66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G66" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I66" s="52"/>
+      <c r="J66" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K66" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L66" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="M66" s="51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="B67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I67" s="52"/>
+      <c r="J67" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K67" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L67" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="M67" s="51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="B68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I68" s="52"/>
+      <c r="J68" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K68" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L68" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="M68" s="51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="B69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="54">
+        <v>42194</v>
+      </c>
+      <c r="I69" s="52"/>
+      <c r="J69" s="54">
+        <v>42194</v>
+      </c>
+      <c r="K69" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L69" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="M69" s="51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="B70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="56">
+        <v>42195</v>
+      </c>
+      <c r="I70" s="52"/>
+      <c r="J70" s="54">
+        <v>42195</v>
+      </c>
+      <c r="K70" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L70" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="M70" s="51" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="B71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="56">
+        <v>42195</v>
+      </c>
+      <c r="I71" s="52"/>
+      <c r="J71" s="54">
+        <v>42195</v>
+      </c>
+      <c r="K71" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L71" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="M71" s="51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="B72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="56">
+        <v>42195</v>
+      </c>
+      <c r="I72" s="52"/>
+      <c r="J72" s="54">
+        <v>42195</v>
+      </c>
+      <c r="K72" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L72" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="M72" s="51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="56">
+        <v>42195</v>
+      </c>
+      <c r="I73" s="52"/>
+      <c r="J73" s="54">
+        <v>42195</v>
+      </c>
+      <c r="K73" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="L73" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="M73" s="51" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>218</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4437,7 +5385,7 @@
     <mergeCell ref="J5:M5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G33 G54:G73">
       <formula1>$Q$19:$Q$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G43">

--- a/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
+++ b/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="2"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="363">
   <si>
     <t>Repositorio de No Conformidades</t>
   </si>
@@ -1159,13 +1159,163 @@
   </si>
   <si>
     <t>No realizar cambios en las actividades o incluir más dependiendo el caso que sean más claras y concisas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administracion de la configuracion </t>
+  </si>
+  <si>
+    <t>GGM</t>
+  </si>
+  <si>
+    <t>Plan de CM</t>
+  </si>
+  <si>
+    <t>1 H</t>
+  </si>
+  <si>
+    <t>Proveedores y URL</t>
+  </si>
+  <si>
+    <t>No se cuenta con un proveedor para llevar un control de los documentos y verciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privilegios sobre las carpetas </t>
+  </si>
+  <si>
+    <t>No se tiene determinado los privilegios que los miembros tienen sobre las carpetas del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de los elementos de configuración        </t>
+  </si>
+  <si>
+    <t>No se cuenta con un estadar para determinar los nombres que se estableseran para cada uno de los docuemtos</t>
+  </si>
+  <si>
+    <t>Recursos de Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se mencionan los recursos de software que se utilizaran durante el desarrollo del proyecto en la documentacion </t>
+  </si>
+  <si>
+    <t>2 H</t>
+  </si>
+  <si>
+    <t>Identificación de los Elementos de Configuración</t>
+  </si>
+  <si>
+    <t>No se cuenta con un apartado en el que se pueda identificar cada uno de los documentos en los elementos de la configuracion y sus ubicaciones de cada uno de ellos</t>
+  </si>
+  <si>
+    <t>Aseguramiento de calidad</t>
+  </si>
+  <si>
+    <t>Lecciones Aprendidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación del area de proceso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se cuenta con una identificacion del area de proceso para las lecciones aprendidas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalles de solucion </t>
+  </si>
+  <si>
+    <t>No cuenta con los detalles de solucion recomendados</t>
+  </si>
+  <si>
+    <t>participantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no se cuenta con el nombre de los participantes en las lecciones </t>
+  </si>
+  <si>
+    <t>Identificacion del proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se cuenta con el nombre del proceso </t>
+  </si>
+  <si>
+    <t>detalles de éxito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se cuenta con los detalles de éxito </t>
+  </si>
+  <si>
+    <t>Planeacion del Proyecto</t>
+  </si>
+  <si>
+    <t>Plan de contingencia</t>
+  </si>
+  <si>
+    <t>Formato de registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se cuenta con un formato para evaluar cada uno de los riesgos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metodo para reportar el progreso </t>
+  </si>
+  <si>
+    <t>los metodos para reportar cada uno de los riegos no se encuentran bien definidos</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>el apartado de recursos no cuenta con las especificaciones que se deven tomar para cada riesgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterios de implementacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se mencionan los criterios que se tomaran en cuenta para cada uno de los riesgos </t>
+  </si>
+  <si>
+    <t>Responsables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se hace mencion de la persona o personas involucradas para la implementacion de la contingencia del riesgo </t>
+  </si>
+  <si>
+    <t>Acta de cierra</t>
+  </si>
+  <si>
+    <t>involucrados</t>
+  </si>
+  <si>
+    <t>No se cuenta con un apartado de los involucrados del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razon de cierre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se cuenta con el apartado en el que se hace mencion de los motivos del cierre </t>
+  </si>
+  <si>
+    <t>Aceptacion de productos o entregables</t>
+  </si>
+  <si>
+    <t>No se cuenta con un apartado donde se mencionesn los entregables del proyecto</t>
+  </si>
+  <si>
+    <t>Firmas</t>
+  </si>
+  <si>
+    <t>No se cuenta con el apartado para la recoleccion de firmas</t>
+  </si>
+  <si>
+    <t>Datos del proyecto</t>
+  </si>
+  <si>
+    <t>No se mencionan los datos del proyecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +1413,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1468,7 +1624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,6 +1744,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1618,25 +1795,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2005,21 +2188,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -2089,10 +2272,10 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
@@ -2135,10 +2318,10 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
@@ -2181,12 +2364,12 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -2368,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,21 +2567,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2428,23 +2611,23 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -2514,7 +2697,7 @@
       <c r="J7" s="7">
         <v>42152</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="61" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -2553,7 +2736,7 @@
       <c r="J8" s="7">
         <v>42152</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="61" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -2592,7 +2775,7 @@
       <c r="J9" s="8">
         <v>42152</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="61" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -2631,7 +2814,7 @@
       <c r="J10" s="8">
         <v>42152</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="61" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -2670,7 +2853,7 @@
       <c r="J11" s="8">
         <v>42152</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="61" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -2709,7 +2892,7 @@
       <c r="J12" s="8">
         <v>42152</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="61" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -2748,7 +2931,7 @@
       <c r="J13" s="8">
         <v>42153</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="61" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -2787,7 +2970,7 @@
       <c r="J14" s="11">
         <v>42153</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="64" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -2826,7 +3009,7 @@
       <c r="J15" s="11">
         <v>42153</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="64" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -2865,7 +3048,7 @@
       <c r="J16" s="11">
         <v>42153</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="64" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -2904,7 +3087,7 @@
       <c r="J17" s="11">
         <v>42153</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="64" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -2943,7 +3126,7 @@
       <c r="J18" s="11">
         <v>42184</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="64" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -2982,7 +3165,7 @@
       <c r="J19" s="11">
         <v>42154</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="9" t="s">
@@ -3021,7 +3204,7 @@
       <c r="J20" s="11">
         <v>42154</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -3060,7 +3243,7 @@
       <c r="J21" s="11">
         <v>42154</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -3099,7 +3282,7 @@
       <c r="J22" s="11">
         <v>42154</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -3138,7 +3321,7 @@
       <c r="J23" s="11">
         <v>42154</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -3177,7 +3360,7 @@
       <c r="J24" s="11">
         <v>42154</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -3216,7 +3399,7 @@
       <c r="J25" s="11">
         <v>42154</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -3255,7 +3438,7 @@
       <c r="J26" s="11">
         <v>42154</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -3294,7 +3477,7 @@
       <c r="J27" s="11">
         <v>42155</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -3333,7 +3516,7 @@
       <c r="J28" s="11">
         <v>42155</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="9" t="s">
@@ -3372,7 +3555,7 @@
       <c r="J29" s="11">
         <v>42155</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="9" t="s">
@@ -3411,7 +3594,7 @@
       <c r="J30" s="11">
         <v>42155</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="9" t="s">
@@ -3450,7 +3633,7 @@
       <c r="J31" s="11">
         <v>42155</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="9" t="s">
@@ -3489,7 +3672,7 @@
       <c r="J32" s="11">
         <v>42155</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="9" t="s">
@@ -3528,7 +3711,7 @@
       <c r="J33" s="11">
         <v>42155</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="9" t="s">
@@ -3539,7 +3722,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="47" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -3567,7 +3750,7 @@
       <c r="J34" s="11">
         <v>42152</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L34" s="9" t="s">
@@ -3579,7 +3762,7 @@
       <c r="N34" s="38"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="47" t="s">
         <v>147</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -3607,7 +3790,7 @@
       <c r="J35" s="11">
         <v>42152</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="9" t="s">
@@ -3619,7 +3802,7 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="47" t="s">
         <v>148</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -3647,7 +3830,7 @@
       <c r="J36" s="11">
         <v>42152</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L36" s="9" t="s">
@@ -3659,7 +3842,7 @@
       <c r="N36" s="38"/>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="47" t="s">
         <v>149</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -3687,7 +3870,7 @@
       <c r="J37" s="11">
         <v>42152</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="62" t="s">
         <v>39</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -3699,7 +3882,7 @@
       <c r="N37" s="38"/>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -3727,7 +3910,7 @@
       <c r="J38" s="11">
         <v>42152</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="9" t="s">
@@ -3739,7 +3922,7 @@
       <c r="N38" s="38"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -3767,7 +3950,7 @@
       <c r="J39" s="11">
         <v>42152</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="9" t="s">
@@ -3779,7 +3962,7 @@
       <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="47" t="s">
         <v>152</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -3807,7 +3990,7 @@
       <c r="J40" s="11">
         <v>42152</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="9" t="s">
@@ -3819,7 +4002,7 @@
       <c r="N40" s="38"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="47" t="s">
         <v>153</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -3847,7 +4030,7 @@
       <c r="J41" s="11">
         <v>42152</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L41" s="9" t="s">
@@ -3859,7 +4042,7 @@
       <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="47" t="s">
         <v>154</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -3887,7 +4070,7 @@
       <c r="J42" s="11">
         <v>42152</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L42" s="9" t="s">
@@ -3899,7 +4082,7 @@
       <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="47" t="s">
         <v>155</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -3927,7 +4110,7 @@
       <c r="J43" s="11">
         <v>42152</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="9" t="s">
@@ -3939,7 +4122,7 @@
       <c r="N43" s="38"/>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="47" t="s">
         <v>156</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -3967,7 +4150,7 @@
       <c r="J44" s="11">
         <v>42152</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L44" s="9" t="s">
@@ -3979,7 +4162,7 @@
       <c r="N44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="47" t="s">
         <v>157</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -4007,7 +4190,7 @@
       <c r="J45" s="11">
         <v>42152</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="9" t="s">
@@ -4019,7 +4202,7 @@
       <c r="N45" s="38"/>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="47" t="s">
         <v>158</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -4047,7 +4230,7 @@
       <c r="J46" s="11">
         <v>42152</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L46" s="9" t="s">
@@ -4059,7 +4242,7 @@
       <c r="N46" s="38"/>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="47" t="s">
         <v>159</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -4087,7 +4270,7 @@
       <c r="J47" s="11">
         <v>42152</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="9" t="s">
@@ -4099,7 +4282,7 @@
       <c r="N47" s="38"/>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="47" t="s">
         <v>160</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -4127,7 +4310,7 @@
       <c r="J48" s="11">
         <v>42152</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="K48" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L48" s="9" t="s">
@@ -4139,7 +4322,7 @@
       <c r="N48" s="38"/>
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="47" t="s">
         <v>161</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -4167,7 +4350,7 @@
       <c r="J49" s="11">
         <v>42152</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="K49" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="9" t="s">
@@ -4179,7 +4362,7 @@
       <c r="N49" s="38"/>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="47" t="s">
         <v>162</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -4207,7 +4390,7 @@
       <c r="J50" s="11">
         <v>42152</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L50" s="9" t="s">
@@ -4219,7 +4402,7 @@
       <c r="N50" s="38"/>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="47" t="s">
         <v>163</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -4247,7 +4430,7 @@
       <c r="J51" s="11">
         <v>42152</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="9" t="s">
@@ -4259,7 +4442,7 @@
       <c r="N51" s="38"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="47" t="s">
         <v>164</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -4287,7 +4470,7 @@
       <c r="J52" s="11">
         <v>42152</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L52" s="9" t="s">
@@ -4299,7 +4482,7 @@
       <c r="N52" s="38"/>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="47" t="s">
         <v>165</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -4327,7 +4510,7 @@
       <c r="J53" s="11">
         <v>42152</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="K53" s="62" t="s">
         <v>21</v>
       </c>
       <c r="L53" s="9" t="s">
@@ -4345,35 +4528,35 @@
       <c r="B54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G54" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="54">
+      <c r="G54" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="44">
         <v>42193</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="54">
+      <c r="I54" s="42"/>
+      <c r="J54" s="44">
         <v>42193</v>
       </c>
-      <c r="K54" s="51" t="s">
+      <c r="K54" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L54" s="51" t="s">
+      <c r="L54" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="51" t="s">
+      <c r="M54" s="41" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4384,35 +4567,35 @@
       <c r="B55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G55" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="54">
+      <c r="G55" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="44">
         <v>42193</v>
       </c>
-      <c r="I55" s="52"/>
-      <c r="J55" s="54">
+      <c r="I55" s="42"/>
+      <c r="J55" s="44">
         <v>42193</v>
       </c>
-      <c r="K55" s="51" t="s">
+      <c r="K55" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L55" s="51" t="s">
+      <c r="L55" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="M55" s="51" t="s">
+      <c r="M55" s="41" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4423,35 +4606,35 @@
       <c r="B56" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="51" t="s">
+      <c r="E56" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G56" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="54">
+      <c r="G56" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="44">
         <v>42193</v>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="54">
+      <c r="I56" s="42"/>
+      <c r="J56" s="44">
         <v>42193</v>
       </c>
-      <c r="K56" s="51" t="s">
+      <c r="K56" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L56" s="51" t="s">
+      <c r="L56" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="M56" s="51" t="s">
+      <c r="M56" s="41" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4462,35 +4645,35 @@
       <c r="B57" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="F57" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G57" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="54">
+      <c r="G57" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="44">
         <v>42193</v>
       </c>
-      <c r="I57" s="52"/>
-      <c r="J57" s="54">
+      <c r="I57" s="42"/>
+      <c r="J57" s="44">
         <v>42193</v>
       </c>
-      <c r="K57" s="51" t="s">
+      <c r="K57" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L57" s="51" t="s">
+      <c r="L57" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="M57" s="51" t="s">
+      <c r="M57" s="41" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4501,35 +4684,35 @@
       <c r="B58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="G58" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="54">
+      <c r="G58" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="44">
         <v>42193</v>
       </c>
-      <c r="I58" s="52"/>
-      <c r="J58" s="54">
+      <c r="I58" s="42"/>
+      <c r="J58" s="44">
         <v>42193</v>
       </c>
-      <c r="K58" s="51" t="s">
+      <c r="K58" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L58" s="51" t="s">
+      <c r="L58" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="M58" s="51" t="s">
+      <c r="M58" s="41" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4540,35 +4723,35 @@
       <c r="B59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="F59" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="G59" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="54">
+      <c r="G59" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="44">
         <v>42193</v>
       </c>
-      <c r="I59" s="52"/>
-      <c r="J59" s="54">
+      <c r="I59" s="42"/>
+      <c r="J59" s="44">
         <v>42193</v>
       </c>
-      <c r="K59" s="51" t="s">
+      <c r="K59" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L59" s="51" t="s">
+      <c r="L59" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M59" s="51" t="s">
+      <c r="M59" s="41" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4579,35 +4762,35 @@
       <c r="B60" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="G60" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="54">
+      <c r="G60" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="44">
         <v>42193</v>
       </c>
-      <c r="I60" s="52"/>
-      <c r="J60" s="54">
+      <c r="I60" s="42"/>
+      <c r="J60" s="44">
         <v>42193</v>
       </c>
-      <c r="K60" s="51" t="s">
+      <c r="K60" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L60" s="51" t="s">
+      <c r="L60" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="M60" s="51" t="s">
+      <c r="M60" s="41" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4618,35 +4801,35 @@
       <c r="B61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="E61" s="51" t="s">
+      <c r="E61" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F61" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="G61" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="54">
+      <c r="G61" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="44">
         <v>42193</v>
       </c>
-      <c r="I61" s="52"/>
-      <c r="J61" s="54">
+      <c r="I61" s="42"/>
+      <c r="J61" s="44">
         <v>42193</v>
       </c>
-      <c r="K61" s="51" t="s">
+      <c r="K61" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L61" s="51" t="s">
+      <c r="L61" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="M61" s="51" t="s">
+      <c r="M61" s="41" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4657,33 +4840,33 @@
       <c r="B62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="F62" s="53" t="s">
+      <c r="F62" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="54">
+      <c r="G62" s="42"/>
+      <c r="H62" s="44">
         <v>42194</v>
       </c>
-      <c r="I62" s="52"/>
-      <c r="J62" s="54">
+      <c r="I62" s="42"/>
+      <c r="J62" s="44">
         <v>42194</v>
       </c>
-      <c r="K62" s="51" t="s">
+      <c r="K62" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L62" s="51" t="s">
+      <c r="L62" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="M62" s="51" t="s">
+      <c r="M62" s="41" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4694,33 +4877,33 @@
       <c r="B63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="F63" s="53" t="s">
+      <c r="F63" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="54">
+      <c r="G63" s="42"/>
+      <c r="H63" s="44">
         <v>42194</v>
       </c>
-      <c r="I63" s="52"/>
-      <c r="J63" s="54">
+      <c r="I63" s="42"/>
+      <c r="J63" s="44">
         <v>42194</v>
       </c>
-      <c r="K63" s="51" t="s">
+      <c r="K63" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L63" s="51" t="s">
+      <c r="L63" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="M63" s="51" t="s">
+      <c r="M63" s="41" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4731,35 +4914,35 @@
       <c r="B64" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="F64" s="53" t="s">
+      <c r="F64" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="G64" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="54">
+      <c r="G64" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="44">
         <v>42194</v>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="54">
+      <c r="I64" s="42"/>
+      <c r="J64" s="44">
         <v>42194</v>
       </c>
-      <c r="K64" s="51" t="s">
+      <c r="K64" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L64" s="51" t="s">
+      <c r="L64" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="M64" s="51" t="s">
+      <c r="M64" s="41" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4770,35 +4953,35 @@
       <c r="B65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="F65" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="G65" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="54">
+      <c r="G65" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="44">
         <v>42194</v>
       </c>
-      <c r="I65" s="52"/>
-      <c r="J65" s="54">
+      <c r="I65" s="42"/>
+      <c r="J65" s="44">
         <v>42194</v>
       </c>
-      <c r="K65" s="51" t="s">
+      <c r="K65" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L65" s="51" t="s">
+      <c r="L65" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="M65" s="51" t="s">
+      <c r="M65" s="41" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4809,35 +4992,35 @@
       <c r="B66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="F66" s="53" t="s">
+      <c r="F66" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="G66" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="54">
+      <c r="G66" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="44">
         <v>42194</v>
       </c>
-      <c r="I66" s="52"/>
-      <c r="J66" s="54">
+      <c r="I66" s="42"/>
+      <c r="J66" s="44">
         <v>42194</v>
       </c>
-      <c r="K66" s="51" t="s">
+      <c r="K66" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L66" s="51" t="s">
+      <c r="L66" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="M66" s="51" t="s">
+      <c r="M66" s="41" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4848,35 +5031,35 @@
       <c r="B67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="51" t="s">
+      <c r="E67" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="53" t="s">
+      <c r="F67" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="G67" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="54">
+      <c r="G67" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="44">
         <v>42194</v>
       </c>
-      <c r="I67" s="52"/>
-      <c r="J67" s="54">
+      <c r="I67" s="42"/>
+      <c r="J67" s="44">
         <v>42194</v>
       </c>
-      <c r="K67" s="51" t="s">
+      <c r="K67" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L67" s="51" t="s">
+      <c r="L67" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="M67" s="51" t="s">
+      <c r="M67" s="41" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4887,35 +5070,35 @@
       <c r="B68" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="51" t="s">
+      <c r="E68" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="F68" s="53" t="s">
+      <c r="F68" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="G68" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="54">
+      <c r="G68" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="44">
         <v>42194</v>
       </c>
-      <c r="I68" s="52"/>
-      <c r="J68" s="54">
+      <c r="I68" s="42"/>
+      <c r="J68" s="44">
         <v>42194</v>
       </c>
-      <c r="K68" s="51" t="s">
+      <c r="K68" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L68" s="51" t="s">
+      <c r="L68" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M68" s="51" t="s">
+      <c r="M68" s="41" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4926,35 +5109,35 @@
       <c r="B69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F69" s="53" t="s">
+      <c r="F69" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G69" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="54">
+      <c r="G69" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="44">
         <v>42194</v>
       </c>
-      <c r="I69" s="52"/>
-      <c r="J69" s="54">
+      <c r="I69" s="42"/>
+      <c r="J69" s="44">
         <v>42194</v>
       </c>
-      <c r="K69" s="51" t="s">
+      <c r="K69" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L69" s="51" t="s">
+      <c r="L69" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="M69" s="51" t="s">
+      <c r="M69" s="41" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4965,35 +5148,35 @@
       <c r="B70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E70" s="51" t="s">
+      <c r="E70" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="F70" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G70" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="56">
+      <c r="G70" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="46">
         <v>42195</v>
       </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="54">
+      <c r="I70" s="42"/>
+      <c r="J70" s="44">
         <v>42195</v>
       </c>
-      <c r="K70" s="51" t="s">
+      <c r="K70" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L70" s="51" t="s">
+      <c r="L70" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="M70" s="51" t="s">
+      <c r="M70" s="41" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5004,35 +5187,35 @@
       <c r="B71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F71" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G71" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="56">
+      <c r="G71" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="46">
         <v>42195</v>
       </c>
-      <c r="I71" s="52"/>
-      <c r="J71" s="54">
+      <c r="I71" s="42"/>
+      <c r="J71" s="44">
         <v>42195</v>
       </c>
-      <c r="K71" s="51" t="s">
+      <c r="K71" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L71" s="51" t="s">
+      <c r="L71" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="M71" s="51" t="s">
+      <c r="M71" s="41" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5043,35 +5226,35 @@
       <c r="B72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E72" s="51" t="s">
+      <c r="E72" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="F72" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G72" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="56">
+      <c r="G72" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="46">
         <v>42195</v>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="54">
+      <c r="I72" s="42"/>
+      <c r="J72" s="44">
         <v>42195</v>
       </c>
-      <c r="K72" s="51" t="s">
+      <c r="K72" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L72" s="51" t="s">
+      <c r="L72" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="M72" s="51" t="s">
+      <c r="M72" s="41" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5082,199 +5265,819 @@
       <c r="B73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E73" s="51" t="s">
+      <c r="E73" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="F73" s="53" t="s">
+      <c r="F73" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="G73" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="56">
+      <c r="G73" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="46">
         <v>42195</v>
       </c>
-      <c r="I73" s="52"/>
-      <c r="J73" s="54">
+      <c r="I73" s="42"/>
+      <c r="J73" s="44">
         <v>42195</v>
       </c>
-      <c r="K73" s="51" t="s">
+      <c r="K73" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="L73" s="51" t="s">
+      <c r="L73" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="M73" s="51" t="s">
+      <c r="M73" s="41" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="E74" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F74" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="G74" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="60">
+        <v>42152</v>
+      </c>
+      <c r="I74" s="42"/>
+      <c r="J74" s="7">
+        <v>42153</v>
+      </c>
+      <c r="K74" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L74" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="M74" s="59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C75" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F75" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="60">
+        <v>42152</v>
+      </c>
+      <c r="I75" s="42"/>
+      <c r="J75" s="7">
+        <v>42153</v>
+      </c>
+      <c r="K75" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L75" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="M75" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F76" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="G76" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" s="60">
+        <v>42152</v>
+      </c>
+      <c r="I76" s="42"/>
+      <c r="J76" s="7">
+        <v>42153</v>
+      </c>
+      <c r="K76" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L76" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="M76" s="59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C77" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="60">
+        <v>42152</v>
+      </c>
+      <c r="I77" s="42"/>
+      <c r="J77" s="7">
+        <v>42153</v>
+      </c>
+      <c r="K77" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L77" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="M77" s="59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="60">
+        <v>42152</v>
+      </c>
+      <c r="I78" s="42"/>
+      <c r="J78" s="7">
+        <v>42153</v>
+      </c>
+      <c r="K78" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="L78" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="M78" s="59" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F79" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G79" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H79" s="60">
+        <v>42153</v>
+      </c>
+      <c r="I79" s="42"/>
+      <c r="J79" s="60">
+        <v>42154</v>
+      </c>
+      <c r="K79" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="L79" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="M79" s="58" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F80" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G80" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="60">
+        <v>42153</v>
+      </c>
+      <c r="I80" s="42"/>
+      <c r="J80" s="60">
+        <v>42154</v>
+      </c>
+      <c r="K80" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="L80" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="M80" s="58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F81" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G81" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="60">
+        <v>42153</v>
+      </c>
+      <c r="I81" s="42"/>
+      <c r="J81" s="60">
+        <v>42154</v>
+      </c>
+      <c r="K81" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="L81" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="M81" s="58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="E82" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F82" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="60">
+        <v>42153</v>
+      </c>
+      <c r="I82" s="42"/>
+      <c r="J82" s="60">
+        <v>42154</v>
+      </c>
+      <c r="K82" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="L82" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="M82" s="58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G83" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="60">
+        <v>42153</v>
+      </c>
+      <c r="I83" s="42"/>
+      <c r="J83" s="60">
+        <v>42154</v>
+      </c>
+      <c r="K83" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="L83" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="M83" s="58" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>196</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="G84" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="60">
+        <v>42154</v>
+      </c>
+      <c r="I84" s="42"/>
+      <c r="J84" s="60">
+        <v>42156</v>
+      </c>
+      <c r="K84" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L84" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="M84" s="59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F85" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="G85" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="60">
+        <v>42154</v>
+      </c>
+      <c r="I85" s="42"/>
+      <c r="J85" s="60">
+        <v>42156</v>
+      </c>
+      <c r="K85" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L85" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="M85" s="59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E86" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F86" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="G86" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="60">
+        <v>42154</v>
+      </c>
+      <c r="I86" s="42"/>
+      <c r="J86" s="60">
+        <v>42156</v>
+      </c>
+      <c r="K86" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="L86" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="M86" s="59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F87" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="G87" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="60">
+        <v>42154</v>
+      </c>
+      <c r="I87" s="42"/>
+      <c r="J87" s="60">
+        <v>42156</v>
+      </c>
+      <c r="K87" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L87" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="M87" s="59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F88" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="G88" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="60">
+        <v>42154</v>
+      </c>
+      <c r="I88" s="42"/>
+      <c r="J88" s="60">
+        <v>42156</v>
+      </c>
+      <c r="K88" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="L88" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="M88" s="59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>201</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F89" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="60">
+        <v>42154</v>
+      </c>
+      <c r="I89" s="42"/>
+      <c r="J89" s="60">
+        <v>42156</v>
+      </c>
+      <c r="K89" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="L89" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="M89" s="58" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G90" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="60">
+        <v>42154</v>
+      </c>
+      <c r="I90" s="42"/>
+      <c r="J90" s="60">
+        <v>42156</v>
+      </c>
+      <c r="K90" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="L90" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="M90" s="58" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F91" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G91" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="60">
+        <v>42156</v>
+      </c>
+      <c r="I91" s="42"/>
+      <c r="J91" s="60">
+        <v>42157</v>
+      </c>
+      <c r="K91" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="L91" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="M91" s="58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F92" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G92" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="60">
+        <v>42156</v>
+      </c>
+      <c r="I92" s="42"/>
+      <c r="J92" s="60">
+        <v>42157</v>
+      </c>
+      <c r="K92" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="L92" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M92" s="58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="E93" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F93" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G93" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="60">
+        <v>42156</v>
+      </c>
+      <c r="I93" s="42"/>
+      <c r="J93" s="60">
+        <v>42157</v>
+      </c>
+      <c r="K93" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="L93" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="M93" s="58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>206</v>
       </c>
@@ -5282,7 +6085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>207</v>
       </c>
@@ -5290,7 +6093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>208</v>
       </c>
@@ -5385,7 +6188,7 @@
     <mergeCell ref="J5:M5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G33 G54:G73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G33 G54:G93">
       <formula1>$Q$19:$Q$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G43">
@@ -5393,6 +6196,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
+++ b/Administracion-de-Proyectos/Aseguramiento-de-la-calidad/TMv3-Repositorio-de-No-Conformidades.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="2"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="438">
   <si>
     <t>Repositorio de No Conformidades</t>
   </si>
@@ -531,9 +531,6 @@
     <t>No cuenta con un apartado para el título del documento en la hoja de identificación.</t>
   </si>
   <si>
-    <t>CN_023</t>
-  </si>
-  <si>
     <t>Plan de licitaciones</t>
   </si>
   <si>
@@ -543,36 +540,24 @@
     <t>No cuenta con un título que se identifique facilmente.</t>
   </si>
   <si>
-    <t>CN_024</t>
-  </si>
-  <si>
     <t>No tiene un apartado para el nombre de cada en participante contratado.</t>
   </si>
   <si>
     <t>No cuenta con un espacio especifico para describir el nombre de cada integrante.</t>
   </si>
   <si>
-    <t>CN_025</t>
-  </si>
-  <si>
     <t>El documento tiene espacios de más.</t>
   </si>
   <si>
     <t>El documento contiene espacios inecesarios.</t>
   </si>
   <si>
-    <t>CN_026</t>
-  </si>
-  <si>
     <t>El encabezado de la tabla no es formal..</t>
   </si>
   <si>
     <t>El encabezado no esta justificado y tampoco tiene en negritas.</t>
   </si>
   <si>
-    <t>CN_027</t>
-  </si>
-  <si>
     <t>No tiene fecha de cuando se realizo el documento.</t>
   </si>
   <si>
@@ -660,225 +645,6 @@
     <t>Historial de Cambios</t>
   </si>
   <si>
-    <t>CN_028</t>
-  </si>
-  <si>
-    <t>CN_029</t>
-  </si>
-  <si>
-    <t>CN_030</t>
-  </si>
-  <si>
-    <t>CN_031</t>
-  </si>
-  <si>
-    <t>CN_032</t>
-  </si>
-  <si>
-    <t>CN_033</t>
-  </si>
-  <si>
-    <t>CN_034</t>
-  </si>
-  <si>
-    <t>CN_035</t>
-  </si>
-  <si>
-    <t>CN_036</t>
-  </si>
-  <si>
-    <t>CN_037</t>
-  </si>
-  <si>
-    <t>CN_038</t>
-  </si>
-  <si>
-    <t>CN_039</t>
-  </si>
-  <si>
-    <t>CN_040</t>
-  </si>
-  <si>
-    <t>CN_041</t>
-  </si>
-  <si>
-    <t>CN_042</t>
-  </si>
-  <si>
-    <t>CN_043</t>
-  </si>
-  <si>
-    <t>CN_044</t>
-  </si>
-  <si>
-    <t>CN_045</t>
-  </si>
-  <si>
-    <t>CN_046</t>
-  </si>
-  <si>
-    <t>CN_047</t>
-  </si>
-  <si>
-    <t>CN_048</t>
-  </si>
-  <si>
-    <t>CN_049</t>
-  </si>
-  <si>
-    <t>CN_050</t>
-  </si>
-  <si>
-    <t>CN_051</t>
-  </si>
-  <si>
-    <t>CN_052</t>
-  </si>
-  <si>
-    <t>CN_053</t>
-  </si>
-  <si>
-    <t>CN_054</t>
-  </si>
-  <si>
-    <t>CN_055</t>
-  </si>
-  <si>
-    <t>CN_056</t>
-  </si>
-  <si>
-    <t>CN_057</t>
-  </si>
-  <si>
-    <t>CN_058</t>
-  </si>
-  <si>
-    <t>CN_059</t>
-  </si>
-  <si>
-    <t>CN_060</t>
-  </si>
-  <si>
-    <t>CN_061</t>
-  </si>
-  <si>
-    <t>CN_062</t>
-  </si>
-  <si>
-    <t>CN_063</t>
-  </si>
-  <si>
-    <t>CN_064</t>
-  </si>
-  <si>
-    <t>CN_065</t>
-  </si>
-  <si>
-    <t>CN_066</t>
-  </si>
-  <si>
-    <t>CN_067</t>
-  </si>
-  <si>
-    <t>CN_068</t>
-  </si>
-  <si>
-    <t>CN_069</t>
-  </si>
-  <si>
-    <t>CN_070</t>
-  </si>
-  <si>
-    <t>CN_071</t>
-  </si>
-  <si>
-    <t>CN_072</t>
-  </si>
-  <si>
-    <t>CN_073</t>
-  </si>
-  <si>
-    <t>CN_074</t>
-  </si>
-  <si>
-    <t>CN_075</t>
-  </si>
-  <si>
-    <t>CN_076</t>
-  </si>
-  <si>
-    <t>CN_077</t>
-  </si>
-  <si>
-    <t>CN_078</t>
-  </si>
-  <si>
-    <t>CN_079</t>
-  </si>
-  <si>
-    <t>CN_080</t>
-  </si>
-  <si>
-    <t>CN_081</t>
-  </si>
-  <si>
-    <t>CN_082</t>
-  </si>
-  <si>
-    <t>CN_083</t>
-  </si>
-  <si>
-    <t>CN_084</t>
-  </si>
-  <si>
-    <t>CN_085</t>
-  </si>
-  <si>
-    <t>CN_086</t>
-  </si>
-  <si>
-    <t>CN_087</t>
-  </si>
-  <si>
-    <t>CN_088</t>
-  </si>
-  <si>
-    <t>CN_089</t>
-  </si>
-  <si>
-    <t>CN_090</t>
-  </si>
-  <si>
-    <t>CN_091</t>
-  </si>
-  <si>
-    <t>CN_092</t>
-  </si>
-  <si>
-    <t>CN_093</t>
-  </si>
-  <si>
-    <t>CN_094</t>
-  </si>
-  <si>
-    <t>CN_095</t>
-  </si>
-  <si>
-    <t>CN_096</t>
-  </si>
-  <si>
-    <t>CN_097</t>
-  </si>
-  <si>
-    <t>CN_098</t>
-  </si>
-  <si>
-    <t>CN_099</t>
-  </si>
-  <si>
-    <t>CN_100</t>
-  </si>
-  <si>
     <t>IRJ</t>
   </si>
   <si>
@@ -1309,6 +1075,465 @@
   </si>
   <si>
     <t>No se mencionan los datos del proyecto</t>
+  </si>
+  <si>
+    <t>LECR</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>las horas  de cada  actividad asignada  son  demasiadas</t>
+  </si>
+  <si>
+    <t>Las  actividades a realizar cuentan con horas  demasiadas a las optimas</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>el WBS no contiene  un ciclo de vida</t>
+  </si>
+  <si>
+    <t>El WBS no cuenta con  un ciclo de vida definido  en el proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no cuenta  con asignación de recursos monetarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no cuenta con asignación de recursos  monetarios  a cada integrante del proyecto</t>
+  </si>
+  <si>
+    <t>las actividades no llevan   un orden de realización</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> las actividades no llevan  un orden de realización   por lo cual  hace  imposible realizar algunas actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cuenta con todas las actividades a realizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> el  WBS  no cuenta con todas las actividades a realizar en el proyecto</t>
+  </si>
+  <si>
+    <t>cuenta con holgura  para  un plan de contingencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no cuenta  con una holgura para el plan de contingencia</t>
+  </si>
+  <si>
+    <t>las  fechas están programadas automáticamente</t>
+  </si>
+  <si>
+    <t>Revisar  que las fechas  estén de forma automática</t>
+  </si>
+  <si>
+    <t>Matriz de  responsabilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cuenta con simbologia  entendible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no cuenta con simbologia entendible para el equipo de proyecto</t>
+  </si>
+  <si>
+    <t>cuenta  con  fases y etapas  de un ciclo de vida</t>
+  </si>
+  <si>
+    <t>no contiene   fases y etapas de un ciclo de vida especificado</t>
+  </si>
+  <si>
+    <t>contiene a todos los integrantes del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no contiene  a  los integrantes del proyecto </t>
+  </si>
+  <si>
+    <t>14/06/20015</t>
+  </si>
+  <si>
+    <t>la asignacion a acada actividad concuerda con el perfil del integrante del equipo</t>
+  </si>
+  <si>
+    <t>las actividades asignadas no las adecuadas para el perfil de  cada integrante</t>
+  </si>
+  <si>
+    <t>todas las actividades fueron asignadas</t>
+  </si>
+  <si>
+    <t>algunas actividades no fueron asiganadas para los integrantes del proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> es  similar al  WBS  en las etapas y faces</t>
+  </si>
+  <si>
+    <t>no cuenta con fases y etapas  similares al WBS</t>
+  </si>
+  <si>
+    <t>EDP</t>
+  </si>
+  <si>
+    <t>Ciclo de Vida</t>
+  </si>
+  <si>
+    <t>Revisión del documento del ciclo de vida</t>
+  </si>
+  <si>
+    <t>El ciclo de vida no cuenta con las fases necesarias al proyecto</t>
+  </si>
+  <si>
+    <t>VECM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proyecto no se ajusta con  las fases del Ciclo de vida </t>
+  </si>
+  <si>
+    <t>El proyecto no se ajusta a las fases del ciclo de vida</t>
+  </si>
+  <si>
+    <t>Errores ortograficos del ciclo de vida</t>
+  </si>
+  <si>
+    <t>hubo algunos errores ortograficos en el documento del ciclo de vida</t>
+  </si>
+  <si>
+    <t>no cuenta con la estructura del ciclo de vida  el proyecto</t>
+  </si>
+  <si>
+    <t>Que no cuenta con la estructura del ciclo de vida del proyecto</t>
+  </si>
+  <si>
+    <t>el analisis no es adecuado para establecer el ciclo de vida</t>
+  </si>
+  <si>
+    <t>el análisis no es el adecuado par establecer el ciclo de vida</t>
+  </si>
+  <si>
+    <t>Recolección de requerimientos</t>
+  </si>
+  <si>
+    <t>Características del sistema</t>
+  </si>
+  <si>
+    <t>No se encontraron características especificas del sistema</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requerimientos funcionales </t>
+  </si>
+  <si>
+    <t>La herramienta no abarca todos los requerimientos funcionales del sistema</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>Documentación de usuario</t>
+  </si>
+  <si>
+    <t>No se encontró la documentación de usuario</t>
+  </si>
+  <si>
+    <t>Se encontraron errores ortográficos en la redacción del producto.</t>
+  </si>
+  <si>
+    <t>Objetivos y alcance</t>
+  </si>
+  <si>
+    <t>No se cuenta con un objetivo y alcance bien definido</t>
+  </si>
+  <si>
+    <t>Identificadores de los requerimientos de cliente</t>
+  </si>
+  <si>
+    <t>No se cuenta con un identificador en los requerimientos de cliente</t>
+  </si>
+  <si>
+    <t>Propósito</t>
+  </si>
+  <si>
+    <t>No contiene una descripción que ayude a comprender el propósito del documento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formato </t>
+  </si>
+  <si>
+    <t>No se sigue el formato establecido en la plantilla</t>
+  </si>
+  <si>
+    <t>NC_023</t>
+  </si>
+  <si>
+    <t>NC_024</t>
+  </si>
+  <si>
+    <t>NC_025</t>
+  </si>
+  <si>
+    <t>NC_026</t>
+  </si>
+  <si>
+    <t>NC_027</t>
+  </si>
+  <si>
+    <t>NC_028</t>
+  </si>
+  <si>
+    <t>NC_029</t>
+  </si>
+  <si>
+    <t>NC_030</t>
+  </si>
+  <si>
+    <t>NC_031</t>
+  </si>
+  <si>
+    <t>NC_032</t>
+  </si>
+  <si>
+    <t>NC_033</t>
+  </si>
+  <si>
+    <t>NC_034</t>
+  </si>
+  <si>
+    <t>NC_035</t>
+  </si>
+  <si>
+    <t>NC_036</t>
+  </si>
+  <si>
+    <t>NC_037</t>
+  </si>
+  <si>
+    <t>NC_038</t>
+  </si>
+  <si>
+    <t>NC_039</t>
+  </si>
+  <si>
+    <t>NC_040</t>
+  </si>
+  <si>
+    <t>NC_041</t>
+  </si>
+  <si>
+    <t>NC_042</t>
+  </si>
+  <si>
+    <t>NC_043</t>
+  </si>
+  <si>
+    <t>NC_044</t>
+  </si>
+  <si>
+    <t>NC_045</t>
+  </si>
+  <si>
+    <t>NC_046</t>
+  </si>
+  <si>
+    <t>NC_047</t>
+  </si>
+  <si>
+    <t>NC_048</t>
+  </si>
+  <si>
+    <t>NC_049</t>
+  </si>
+  <si>
+    <t>NC_050</t>
+  </si>
+  <si>
+    <t>NC_051</t>
+  </si>
+  <si>
+    <t>NC_052</t>
+  </si>
+  <si>
+    <t>NC_053</t>
+  </si>
+  <si>
+    <t>NC_054</t>
+  </si>
+  <si>
+    <t>NC_055</t>
+  </si>
+  <si>
+    <t>NC_056</t>
+  </si>
+  <si>
+    <t>NC_057</t>
+  </si>
+  <si>
+    <t>NC_058</t>
+  </si>
+  <si>
+    <t>NC_059</t>
+  </si>
+  <si>
+    <t>NC_060</t>
+  </si>
+  <si>
+    <t>NC_061</t>
+  </si>
+  <si>
+    <t>NC_062</t>
+  </si>
+  <si>
+    <t>NC_063</t>
+  </si>
+  <si>
+    <t>NC_064</t>
+  </si>
+  <si>
+    <t>NC_065</t>
+  </si>
+  <si>
+    <t>NC_066</t>
+  </si>
+  <si>
+    <t>NC_067</t>
+  </si>
+  <si>
+    <t>NC_068</t>
+  </si>
+  <si>
+    <t>NC_069</t>
+  </si>
+  <si>
+    <t>NC_070</t>
+  </si>
+  <si>
+    <t>NC_071</t>
+  </si>
+  <si>
+    <t>NC_072</t>
+  </si>
+  <si>
+    <t>NC_073</t>
+  </si>
+  <si>
+    <t>NC_074</t>
+  </si>
+  <si>
+    <t>NC_075</t>
+  </si>
+  <si>
+    <t>NC_076</t>
+  </si>
+  <si>
+    <t>NC_077</t>
+  </si>
+  <si>
+    <t>NC_078</t>
+  </si>
+  <si>
+    <t>NC_079</t>
+  </si>
+  <si>
+    <t>NC_080</t>
+  </si>
+  <si>
+    <t>NC_081</t>
+  </si>
+  <si>
+    <t>NC_082</t>
+  </si>
+  <si>
+    <t>NC_083</t>
+  </si>
+  <si>
+    <t>NC_084</t>
+  </si>
+  <si>
+    <t>NC_085</t>
+  </si>
+  <si>
+    <t>NC_086</t>
+  </si>
+  <si>
+    <t>NC_087</t>
+  </si>
+  <si>
+    <t>NC_088</t>
+  </si>
+  <si>
+    <t>NC_089</t>
+  </si>
+  <si>
+    <t>NC_090</t>
+  </si>
+  <si>
+    <t>NC_091</t>
+  </si>
+  <si>
+    <t>NC_092</t>
+  </si>
+  <si>
+    <t>NC_093</t>
+  </si>
+  <si>
+    <t>NC_094</t>
+  </si>
+  <si>
+    <t>NC_095</t>
+  </si>
+  <si>
+    <t>NC_096</t>
+  </si>
+  <si>
+    <t>NC_097</t>
+  </si>
+  <si>
+    <t>NC_098</t>
+  </si>
+  <si>
+    <t>NC_099</t>
+  </si>
+  <si>
+    <t>NC_100</t>
+  </si>
+  <si>
+    <t>NC_101</t>
+  </si>
+  <si>
+    <t>NC_102</t>
+  </si>
+  <si>
+    <t>NC_103</t>
+  </si>
+  <si>
+    <t>NC_104</t>
+  </si>
+  <si>
+    <t>NC_105</t>
+  </si>
+  <si>
+    <t>NC_106</t>
+  </si>
+  <si>
+    <t>NC_107</t>
+  </si>
+  <si>
+    <t>NC_108</t>
+  </si>
+  <si>
+    <t>NC_109</t>
+  </si>
+  <si>
+    <t>NC_110</t>
+  </si>
+  <si>
+    <t>NC_111</t>
+  </si>
+  <si>
+    <t>NC_112</t>
+  </si>
+  <si>
+    <t>NC_113</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1431,24 +1656,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,12 +1945,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1762,7 +1963,31 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,31 +2020,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2188,48 +2391,48 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="52"/>
+      <c r="B3" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="53"/>
+      <c r="A5" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B9" s="8">
         <v>42196</v>
@@ -2239,27 +2442,27 @@
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2272,26 +2475,26 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="49"/>
+      <c r="A14" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="55"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B16" s="18">
         <v>42196</v>
@@ -2318,26 +2521,26 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="49"/>
+      <c r="A20" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="55"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" s="18">
         <v>42196</v>
@@ -2364,39 +2567,39 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55"/>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8">
         <v>42196</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,7 +2646,7 @@
   <sheetData>
     <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" s="15"/>
     </row>
@@ -2452,23 +2655,23 @@
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B8" s="36">
         <v>42196</v>
@@ -2476,18 +2679,18 @@
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2495,7 +2698,7 @@
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -2503,30 +2706,30 @@
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B14" s="33">
         <v>42196</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2549,14 +2752,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N106"/>
+  <dimension ref="A2:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="65"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
@@ -2567,24 +2771,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -2598,7 +2802,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2611,23 +2815,23 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -2669,7 +2873,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2697,7 +2901,7 @@
       <c r="J7" s="7">
         <v>42152</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="48" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -2708,7 +2912,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2736,7 +2940,7 @@
       <c r="J8" s="7">
         <v>42152</v>
       </c>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="48" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -2747,7 +2951,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2775,7 +2979,7 @@
       <c r="J9" s="8">
         <v>42152</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="48" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -2786,7 +2990,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2814,7 +3018,7 @@
       <c r="J10" s="8">
         <v>42152</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="48" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -2825,7 +3029,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2853,7 +3057,7 @@
       <c r="J11" s="8">
         <v>42152</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -2864,7 +3068,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2892,7 +3096,7 @@
       <c r="J12" s="8">
         <v>42152</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="48" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -2903,7 +3107,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -2931,7 +3135,7 @@
       <c r="J13" s="8">
         <v>42153</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="48" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -2942,7 +3146,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2970,7 +3174,7 @@
       <c r="J14" s="11">
         <v>42153</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="51" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -2981,7 +3185,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3009,7 +3213,7 @@
       <c r="J15" s="11">
         <v>42153</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="51" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="10" t="s">
@@ -3020,7 +3224,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -3048,7 +3252,7 @@
       <c r="J16" s="11">
         <v>42153</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="51" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="9" t="s">
@@ -3059,7 +3263,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3087,7 +3291,7 @@
       <c r="J17" s="11">
         <v>42153</v>
       </c>
-      <c r="K17" s="64" t="s">
+      <c r="K17" s="51" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="9" t="s">
@@ -3098,7 +3302,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -3126,7 +3330,7 @@
       <c r="J18" s="11">
         <v>42184</v>
       </c>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="51" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="9" t="s">
@@ -3137,7 +3341,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -3165,7 +3369,7 @@
       <c r="J19" s="11">
         <v>42154</v>
       </c>
-      <c r="K19" s="62" t="s">
+      <c r="K19" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="9" t="s">
@@ -3176,7 +3380,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -3204,7 +3408,7 @@
       <c r="J20" s="11">
         <v>42154</v>
       </c>
-      <c r="K20" s="62" t="s">
+      <c r="K20" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="9" t="s">
@@ -3215,7 +3419,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -3243,7 +3447,7 @@
       <c r="J21" s="11">
         <v>42154</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="9" t="s">
@@ -3254,7 +3458,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -3282,7 +3486,7 @@
       <c r="J22" s="11">
         <v>42154</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="9" t="s">
@@ -3293,7 +3497,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -3321,7 +3525,7 @@
       <c r="J23" s="11">
         <v>42154</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="9" t="s">
@@ -3332,7 +3536,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -3360,7 +3564,7 @@
       <c r="J24" s="11">
         <v>42154</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="9" t="s">
@@ -3371,7 +3575,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -3399,7 +3603,7 @@
       <c r="J25" s="11">
         <v>42154</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="9" t="s">
@@ -3410,7 +3614,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -3438,7 +3642,7 @@
       <c r="J26" s="11">
         <v>42154</v>
       </c>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="9" t="s">
@@ -3449,7 +3653,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -3477,7 +3681,7 @@
       <c r="J27" s="11">
         <v>42155</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="9" t="s">
@@ -3488,7 +3692,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -3516,7 +3720,7 @@
       <c r="J28" s="11">
         <v>42155</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="9" t="s">
@@ -3527,8 +3731,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>103</v>
+      <c r="A29" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>15</v>
@@ -3543,7 +3747,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>20</v>
@@ -3555,19 +3759,19 @@
       <c r="J29" s="11">
         <v>42155</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>107</v>
+      <c r="A30" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>15</v>
@@ -3582,7 +3786,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>20</v>
@@ -3594,19 +3798,19 @@
       <c r="J30" s="11">
         <v>42155</v>
       </c>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>110</v>
+      <c r="A31" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>15</v>
@@ -3621,7 +3825,7 @@
         <v>18</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>20</v>
@@ -3633,19 +3837,19 @@
       <c r="J31" s="11">
         <v>42155</v>
       </c>
-      <c r="K31" s="62" t="s">
+      <c r="K31" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
-        <v>113</v>
+      <c r="A32" s="9" t="s">
+        <v>350</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>15</v>
@@ -3660,7 +3864,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>20</v>
@@ -3672,19 +3876,19 @@
       <c r="J32" s="11">
         <v>42155</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>116</v>
+      <c r="A33" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>15</v>
@@ -3699,7 +3903,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>20</v>
@@ -3711,19 +3915,19 @@
       <c r="J33" s="11">
         <v>42155</v>
       </c>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
-        <v>146</v>
+      <c r="A34" s="9" t="s">
+        <v>352</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>15</v>
@@ -3735,10 +3939,10 @@
         <v>17</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>20</v>
@@ -3750,20 +3954,20 @@
       <c r="J34" s="11">
         <v>42152</v>
       </c>
-      <c r="K34" s="62" t="s">
+      <c r="K34" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="N34" s="38"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
-        <v>147</v>
+      <c r="A35" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>15</v>
@@ -3775,10 +3979,10 @@
         <v>17</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>20</v>
@@ -3790,20 +3994,20 @@
       <c r="J35" s="11">
         <v>42152</v>
       </c>
-      <c r="K35" s="62" t="s">
+      <c r="K35" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
-        <v>148</v>
+      <c r="A36" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>15</v>
@@ -3815,10 +4019,10 @@
         <v>17</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>20</v>
@@ -3830,20 +4034,20 @@
       <c r="J36" s="11">
         <v>42152</v>
       </c>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="N36" s="38"/>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
-        <v>149</v>
+      <c r="A37" s="9" t="s">
+        <v>355</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>15</v>
@@ -3855,10 +4059,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>20</v>
@@ -3870,20 +4074,20 @@
       <c r="J37" s="11">
         <v>42152</v>
       </c>
-      <c r="K37" s="62" t="s">
+      <c r="K37" s="49" t="s">
         <v>39</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="N37" s="38"/>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
-        <v>150</v>
+      <c r="A38" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>15</v>
@@ -3895,10 +4099,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>20</v>
@@ -3910,20 +4114,20 @@
       <c r="J38" s="11">
         <v>42152</v>
       </c>
-      <c r="K38" s="62" t="s">
+      <c r="K38" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="N38" s="38"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>151</v>
+      <c r="A39" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>15</v>
@@ -3932,13 +4136,13 @@
         <v>16</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>20</v>
@@ -3950,20 +4154,20 @@
       <c r="J39" s="11">
         <v>42152</v>
       </c>
-      <c r="K39" s="62" t="s">
+      <c r="K39" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
-        <v>152</v>
+      <c r="A40" s="9" t="s">
+        <v>358</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>15</v>
@@ -3972,13 +4176,13 @@
         <v>16</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>20</v>
@@ -3990,20 +4194,20 @@
       <c r="J40" s="11">
         <v>42152</v>
       </c>
-      <c r="K40" s="62" t="s">
+      <c r="K40" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="N40" s="38"/>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
-        <v>153</v>
+      <c r="A41" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>15</v>
@@ -4012,13 +4216,13 @@
         <v>16</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>20</v>
@@ -4030,35 +4234,35 @@
       <c r="J41" s="11">
         <v>42152</v>
       </c>
-      <c r="K41" s="62" t="s">
+      <c r="K41" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>232</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>20</v>
@@ -4070,35 +4274,35 @@
       <c r="J42" s="11">
         <v>42152</v>
       </c>
-      <c r="K42" s="62" t="s">
+      <c r="K42" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>20</v>
@@ -4110,20 +4314,20 @@
       <c r="J43" s="11">
         <v>42152</v>
       </c>
-      <c r="K43" s="62" t="s">
+      <c r="K43" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="N43" s="38"/>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>156</v>
+      <c r="A44" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>15</v>
@@ -4135,7 +4339,7 @@
         <v>17</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>19</v>
@@ -4150,20 +4354,20 @@
       <c r="J44" s="11">
         <v>42152</v>
       </c>
-      <c r="K44" s="62" t="s">
+      <c r="K44" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="N44" s="38"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
-        <v>157</v>
+      <c r="A45" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>15</v>
@@ -4175,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>19</v>
@@ -4190,20 +4394,20 @@
       <c r="J45" s="11">
         <v>42152</v>
       </c>
-      <c r="K45" s="62" t="s">
+      <c r="K45" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="N45" s="38"/>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
-        <v>158</v>
+      <c r="A46" s="9" t="s">
+        <v>364</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>15</v>
@@ -4215,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>19</v>
@@ -4230,20 +4434,20 @@
       <c r="J46" s="11">
         <v>42152</v>
       </c>
-      <c r="K46" s="62" t="s">
+      <c r="K46" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="N46" s="38"/>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
-        <v>159</v>
+      <c r="A47" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>15</v>
@@ -4255,7 +4459,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>19</v>
@@ -4270,20 +4474,20 @@
       <c r="J47" s="11">
         <v>42152</v>
       </c>
-      <c r="K47" s="62" t="s">
+      <c r="K47" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="N47" s="38"/>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
-        <v>160</v>
+      <c r="A48" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>15</v>
@@ -4295,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>19</v>
@@ -4310,20 +4514,20 @@
       <c r="J48" s="11">
         <v>42152</v>
       </c>
-      <c r="K48" s="62" t="s">
+      <c r="K48" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="N48" s="38"/>
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
-        <v>161</v>
+      <c r="A49" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>15</v>
@@ -4335,10 +4539,10 @@
         <v>17</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>20</v>
@@ -4350,20 +4554,20 @@
       <c r="J49" s="11">
         <v>42152</v>
       </c>
-      <c r="K49" s="62" t="s">
+      <c r="K49" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="N49" s="38"/>
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
-        <v>162</v>
+      <c r="A50" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>15</v>
@@ -4375,10 +4579,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>20</v>
@@ -4390,20 +4594,20 @@
       <c r="J50" s="11">
         <v>42152</v>
       </c>
-      <c r="K50" s="62" t="s">
+      <c r="K50" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="N50" s="38"/>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
-        <v>163</v>
+      <c r="A51" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>15</v>
@@ -4415,10 +4619,10 @@
         <v>17</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>20</v>
@@ -4430,20 +4634,20 @@
       <c r="J51" s="11">
         <v>42152</v>
       </c>
-      <c r="K51" s="62" t="s">
+      <c r="K51" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="N51" s="38"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
-        <v>164</v>
+      <c r="A52" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>15</v>
@@ -4455,10 +4659,10 @@
         <v>17</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>20</v>
@@ -4470,20 +4674,20 @@
       <c r="J52" s="11">
         <v>42152</v>
       </c>
-      <c r="K52" s="62" t="s">
+      <c r="K52" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="N52" s="38"/>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
-        <v>165</v>
+      <c r="A53" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>15</v>
@@ -4495,10 +4699,10 @@
         <v>17</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>78</v>
@@ -4510,1675 +4714,2585 @@
       <c r="J53" s="11">
         <v>42152</v>
       </c>
-      <c r="K53" s="62" t="s">
+      <c r="K53" s="49" t="s">
         <v>21</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="N53" s="38"/>
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>166</v>
+      <c r="A54" s="9" t="s">
+        <v>372</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="G54" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="44">
+      <c r="C54" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="42">
         <v>42193</v>
       </c>
-      <c r="I54" s="42"/>
-      <c r="J54" s="44">
+      <c r="I54" s="40"/>
+      <c r="J54" s="42">
         <v>42193</v>
       </c>
-      <c r="K54" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L54" s="41" t="s">
+      <c r="K54" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="41" t="s">
-        <v>270</v>
+      <c r="M54" s="39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>167</v>
+      <c r="A55" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="G55" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="44">
+      <c r="C55" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="42">
         <v>42193</v>
       </c>
-      <c r="I55" s="42"/>
-      <c r="J55" s="44">
+      <c r="I55" s="40"/>
+      <c r="J55" s="42">
         <v>42193</v>
       </c>
-      <c r="K55" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L55" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="M55" s="41" t="s">
-        <v>272</v>
+      <c r="K55" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>168</v>
+      <c r="A56" s="9" t="s">
+        <v>374</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="44">
+      <c r="C56" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="42">
         <v>42193</v>
       </c>
-      <c r="I56" s="42"/>
-      <c r="J56" s="44">
+      <c r="I56" s="40"/>
+      <c r="J56" s="42">
         <v>42193</v>
       </c>
-      <c r="K56" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L56" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="M56" s="41" t="s">
-        <v>274</v>
+      <c r="K56" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L56" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>169</v>
+      <c r="A57" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="44">
+      <c r="C57" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="42">
         <v>42193</v>
       </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="44">
+      <c r="I57" s="40"/>
+      <c r="J57" s="42">
         <v>42193</v>
       </c>
-      <c r="K57" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L57" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="M57" s="41" t="s">
-        <v>276</v>
+      <c r="K57" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>170</v>
+      <c r="A58" s="9" t="s">
+        <v>376</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="G58" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="44">
+      <c r="C58" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="42">
         <v>42193</v>
       </c>
-      <c r="I58" s="42"/>
-      <c r="J58" s="44">
+      <c r="I58" s="40"/>
+      <c r="J58" s="42">
         <v>42193</v>
       </c>
-      <c r="K58" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L58" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="M58" s="41" t="s">
-        <v>278</v>
+      <c r="K58" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>171</v>
+      <c r="A59" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="G59" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="44">
+      <c r="D59" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="42">
         <v>42193</v>
       </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="44">
+      <c r="I59" s="40"/>
+      <c r="J59" s="42">
         <v>42193</v>
       </c>
-      <c r="K59" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L59" s="41" t="s">
+      <c r="K59" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M59" s="41" t="s">
-        <v>282</v>
+      <c r="M59" s="39" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>172</v>
+      <c r="A60" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="G60" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="44">
+      <c r="D60" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="42">
         <v>42193</v>
       </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="44">
+      <c r="I60" s="40"/>
+      <c r="J60" s="42">
         <v>42193</v>
       </c>
-      <c r="K60" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L60" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="M60" s="41" t="s">
-        <v>284</v>
+      <c r="K60" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>173</v>
+      <c r="A61" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="G61" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="44">
+      <c r="D61" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="42">
         <v>42193</v>
       </c>
-      <c r="I61" s="42"/>
-      <c r="J61" s="44">
+      <c r="I61" s="40"/>
+      <c r="J61" s="42">
         <v>42193</v>
       </c>
-      <c r="K61" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L61" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="M61" s="41" t="s">
-        <v>285</v>
+      <c r="K61" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
-        <v>174</v>
+      <c r="A62" s="9" t="s">
+        <v>380</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="44">
+      <c r="D62" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="40"/>
+      <c r="H62" s="42">
         <v>42194</v>
       </c>
-      <c r="I62" s="42"/>
-      <c r="J62" s="44">
+      <c r="I62" s="40"/>
+      <c r="J62" s="42">
         <v>42194</v>
       </c>
-      <c r="K62" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L62" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="M62" s="41" t="s">
-        <v>287</v>
+      <c r="K62" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L62" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>175</v>
+      <c r="A63" s="9" t="s">
+        <v>381</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="G63" s="42"/>
-      <c r="H63" s="44">
+      <c r="D63" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" s="40"/>
+      <c r="H63" s="42">
         <v>42194</v>
       </c>
-      <c r="I63" s="42"/>
-      <c r="J63" s="44">
+      <c r="I63" s="40"/>
+      <c r="J63" s="42">
         <v>42194</v>
       </c>
-      <c r="K63" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L63" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="M63" s="41" t="s">
-        <v>289</v>
+      <c r="K63" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
-        <v>176</v>
+      <c r="A64" s="9" t="s">
+        <v>382</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="G64" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="44">
+      <c r="D64" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="42">
         <v>42194</v>
       </c>
-      <c r="I64" s="42"/>
-      <c r="J64" s="44">
+      <c r="I64" s="40"/>
+      <c r="J64" s="42">
         <v>42194</v>
       </c>
-      <c r="K64" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L64" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="M64" s="41" t="s">
-        <v>294</v>
+      <c r="K64" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>177</v>
+      <c r="A65" s="9" t="s">
+        <v>383</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="G65" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="44">
+      <c r="D65" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="42">
         <v>42194</v>
       </c>
-      <c r="I65" s="42"/>
-      <c r="J65" s="44">
+      <c r="I65" s="40"/>
+      <c r="J65" s="42">
         <v>42194</v>
       </c>
-      <c r="K65" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L65" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="M65" s="41" t="s">
-        <v>296</v>
+      <c r="K65" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
-        <v>178</v>
+      <c r="A66" s="9" t="s">
+        <v>384</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="G66" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="44">
+      <c r="D66" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="42">
         <v>42194</v>
       </c>
-      <c r="I66" s="42"/>
-      <c r="J66" s="44">
+      <c r="I66" s="40"/>
+      <c r="J66" s="42">
         <v>42194</v>
       </c>
-      <c r="K66" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L66" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="M66" s="41" t="s">
-        <v>298</v>
+      <c r="K66" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="M66" s="39" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>179</v>
+      <c r="A67" s="9" t="s">
+        <v>385</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="G67" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="44">
+      <c r="D67" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="42">
         <v>42194</v>
       </c>
-      <c r="I67" s="42"/>
-      <c r="J67" s="44">
+      <c r="I67" s="40"/>
+      <c r="J67" s="42">
         <v>42194</v>
       </c>
-      <c r="K67" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L67" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="M67" s="41" t="s">
-        <v>300</v>
+      <c r="K67" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="M67" s="39" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>180</v>
+      <c r="A68" s="9" t="s">
+        <v>386</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="G68" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="44">
+      <c r="D68" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="42">
         <v>42194</v>
       </c>
-      <c r="I68" s="42"/>
-      <c r="J68" s="44">
+      <c r="I68" s="40"/>
+      <c r="J68" s="42">
         <v>42194</v>
       </c>
-      <c r="K68" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L68" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="M68" s="41" t="s">
-        <v>302</v>
+      <c r="K68" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L68" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="M68" s="39" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>181</v>
+      <c r="A69" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="G69" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="44">
+      <c r="C69" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="42">
         <v>42194</v>
       </c>
-      <c r="I69" s="42"/>
-      <c r="J69" s="44">
+      <c r="I69" s="40"/>
+      <c r="J69" s="42">
         <v>42194</v>
       </c>
-      <c r="K69" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L69" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="M69" s="41" t="s">
-        <v>282</v>
+      <c r="K69" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>182</v>
+      <c r="A70" s="9" t="s">
+        <v>388</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="46">
+      <c r="C70" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="44">
         <v>42195</v>
       </c>
-      <c r="I70" s="42"/>
-      <c r="J70" s="44">
+      <c r="I70" s="40"/>
+      <c r="J70" s="42">
         <v>42195</v>
       </c>
-      <c r="K70" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L70" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="M70" s="41" t="s">
-        <v>306</v>
+      <c r="K70" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L70" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>183</v>
+      <c r="A71" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="46">
+      <c r="C71" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="44">
         <v>42195</v>
       </c>
-      <c r="I71" s="42"/>
-      <c r="J71" s="44">
+      <c r="I71" s="40"/>
+      <c r="J71" s="42">
         <v>42195</v>
       </c>
-      <c r="K71" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L71" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="M71" s="41" t="s">
-        <v>308</v>
+      <c r="K71" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L71" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="M71" s="39" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>184</v>
+      <c r="A72" s="9" t="s">
+        <v>390</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E72" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="46">
+      <c r="C72" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="44">
         <v>42195</v>
       </c>
-      <c r="I72" s="42"/>
-      <c r="J72" s="44">
+      <c r="I72" s="40"/>
+      <c r="J72" s="42">
         <v>42195</v>
       </c>
-      <c r="K72" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L72" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="M72" s="41" t="s">
-        <v>310</v>
+      <c r="K72" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L72" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="M72" s="39" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>185</v>
+      <c r="A73" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="G73" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="46">
+      <c r="C73" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="44">
         <v>42195</v>
       </c>
-      <c r="I73" s="42"/>
-      <c r="J73" s="44">
+      <c r="I73" s="40"/>
+      <c r="J73" s="42">
         <v>42195</v>
       </c>
-      <c r="K73" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L73" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="M73" s="41" t="s">
-        <v>312</v>
+      <c r="K73" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="M73" s="39" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>186</v>
+        <v>392</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="E74" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F74" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="G74" s="58" t="s">
+      <c r="D74" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H74" s="60">
+      <c r="H74" s="47">
         <v>42152</v>
       </c>
-      <c r="I74" s="42"/>
+      <c r="I74" s="40"/>
       <c r="J74" s="7">
         <v>42153</v>
       </c>
-      <c r="K74" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L74" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="M74" s="59" t="s">
-        <v>318</v>
+      <c r="K74" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L74" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="M74" s="46" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="E75" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F75" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="G75" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="60">
+      <c r="D75" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="47">
         <v>42152</v>
       </c>
-      <c r="I75" s="42"/>
+      <c r="I75" s="40"/>
       <c r="J75" s="7">
         <v>42153</v>
       </c>
-      <c r="K75" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L75" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="M75" s="58" t="s">
-        <v>320</v>
+      <c r="K75" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L75" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="M75" s="45" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="E76" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="G76" s="58" t="s">
+      <c r="D76" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G76" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H76" s="60">
+      <c r="H76" s="47">
         <v>42152</v>
       </c>
-      <c r="I76" s="42"/>
+      <c r="I76" s="40"/>
       <c r="J76" s="7">
         <v>42153</v>
       </c>
-      <c r="K76" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L76" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="M76" s="59" t="s">
-        <v>322</v>
+      <c r="K76" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L76" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="M76" s="46" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="E77" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F77" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="G77" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="60">
+      <c r="D77" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="47">
         <v>42152</v>
       </c>
-      <c r="I77" s="42"/>
+      <c r="I77" s="40"/>
       <c r="J77" s="7">
         <v>42153</v>
       </c>
-      <c r="K77" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L77" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="M77" s="59" t="s">
-        <v>324</v>
+      <c r="K77" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L77" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="M77" s="46" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F78" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="G78" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="60">
+      <c r="D78" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="47">
         <v>42152</v>
       </c>
-      <c r="I78" s="42"/>
+      <c r="I78" s="40"/>
       <c r="J78" s="7">
         <v>42153</v>
       </c>
-      <c r="K78" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="L78" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="M78" s="59" t="s">
-        <v>327</v>
+      <c r="K78" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="L78" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="M78" s="46" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>191</v>
+        <v>397</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E79" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F79" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="G79" s="58" t="s">
+      <c r="D79" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G79" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H79" s="60">
+      <c r="H79" s="47">
         <v>42153</v>
       </c>
-      <c r="I79" s="42"/>
-      <c r="J79" s="60">
+      <c r="I79" s="40"/>
+      <c r="J79" s="47">
         <v>42154</v>
       </c>
-      <c r="K79" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="L79" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="M79" s="58" t="s">
-        <v>331</v>
+      <c r="K79" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="L79" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="M79" s="45" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>192</v>
+        <v>398</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E80" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="G80" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="60">
+      <c r="D80" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="47">
         <v>42153</v>
       </c>
-      <c r="I80" s="42"/>
-      <c r="J80" s="60">
+      <c r="I80" s="40"/>
+      <c r="J80" s="47">
         <v>42154</v>
       </c>
-      <c r="K80" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="L80" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="M80" s="58" t="s">
-        <v>333</v>
+      <c r="K80" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="L80" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="M80" s="45" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>193</v>
+        <v>399</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E81" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F81" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="G81" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="60">
+      <c r="D81" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="47">
         <v>42153</v>
       </c>
-      <c r="I81" s="42"/>
-      <c r="J81" s="60">
+      <c r="I81" s="40"/>
+      <c r="J81" s="47">
         <v>42154</v>
       </c>
-      <c r="K81" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="L81" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="M81" s="58" t="s">
-        <v>335</v>
+      <c r="K81" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L81" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="M81" s="45" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="58" t="s">
+      <c r="C82" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E82" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F82" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="G82" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="60">
+      <c r="D82" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G82" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="47">
         <v>42153</v>
       </c>
-      <c r="I82" s="42"/>
-      <c r="J82" s="60">
+      <c r="I82" s="40"/>
+      <c r="J82" s="47">
         <v>42154</v>
       </c>
-      <c r="K82" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="L82" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="M82" s="58" t="s">
-        <v>337</v>
+      <c r="K82" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L82" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="M82" s="45" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E83" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F83" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="G83" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="60">
+      <c r="D83" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G83" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="47">
         <v>42153</v>
       </c>
-      <c r="I83" s="42"/>
-      <c r="J83" s="60">
+      <c r="I83" s="40"/>
+      <c r="J83" s="47">
         <v>42154</v>
       </c>
-      <c r="K83" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="L83" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="M83" s="58" t="s">
-        <v>339</v>
+      <c r="K83" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="L83" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="M83" s="45" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>196</v>
+        <v>402</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E84" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F84" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="G84" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="60">
+      <c r="C84" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G84" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="47">
         <v>42154</v>
       </c>
-      <c r="I84" s="42"/>
-      <c r="J84" s="60">
+      <c r="I84" s="40"/>
+      <c r="J84" s="47">
         <v>42156</v>
       </c>
-      <c r="K84" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L84" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="M84" s="59" t="s">
-        <v>343</v>
+      <c r="K84" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L84" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="M84" s="46" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E85" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F85" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="G85" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="60">
+      <c r="C85" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="47">
         <v>42154</v>
       </c>
-      <c r="I85" s="42"/>
-      <c r="J85" s="60">
+      <c r="I85" s="40"/>
+      <c r="J85" s="47">
         <v>42156</v>
       </c>
-      <c r="K85" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L85" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="M85" s="59" t="s">
-        <v>345</v>
+      <c r="K85" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L85" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="M85" s="46" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E86" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F86" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="G86" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="60">
+      <c r="C86" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="47">
         <v>42154</v>
       </c>
-      <c r="I86" s="42"/>
-      <c r="J86" s="60">
+      <c r="I86" s="40"/>
+      <c r="J86" s="47">
         <v>42156</v>
       </c>
-      <c r="K86" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="L86" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="M86" s="59" t="s">
-        <v>347</v>
+      <c r="K86" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="L86" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="M86" s="46" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E87" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F87" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="G87" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="60">
+      <c r="C87" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="47">
         <v>42154</v>
       </c>
-      <c r="I87" s="42"/>
-      <c r="J87" s="60">
+      <c r="I87" s="40"/>
+      <c r="J87" s="47">
         <v>42156</v>
       </c>
-      <c r="K87" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L87" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="M87" s="59" t="s">
-        <v>349</v>
+      <c r="K87" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L87" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="M87" s="46" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E88" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F88" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="G88" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="60">
+      <c r="C88" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F88" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="47">
         <v>42154</v>
       </c>
-      <c r="I88" s="42"/>
-      <c r="J88" s="60">
+      <c r="I88" s="40"/>
+      <c r="J88" s="47">
         <v>42156</v>
       </c>
-      <c r="K88" s="66" t="s">
-        <v>316</v>
-      </c>
-      <c r="L88" s="59" t="s">
-        <v>350</v>
-      </c>
-      <c r="M88" s="59" t="s">
-        <v>351</v>
+      <c r="K88" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L88" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="M88" s="46" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>201</v>
+        <v>407</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E89" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F89" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="G89" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="60">
+      <c r="C89" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="47">
         <v>42154</v>
       </c>
-      <c r="I89" s="42"/>
-      <c r="J89" s="60">
+      <c r="I89" s="40"/>
+      <c r="J89" s="47">
         <v>42156</v>
       </c>
-      <c r="K89" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="L89" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="M89" s="58" t="s">
-        <v>354</v>
+      <c r="K89" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L89" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="M89" s="45" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E90" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F90" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="G90" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="60">
+      <c r="C90" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E90" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G90" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="47">
         <v>42154</v>
       </c>
-      <c r="I90" s="42"/>
-      <c r="J90" s="60">
+      <c r="I90" s="40"/>
+      <c r="J90" s="47">
         <v>42156</v>
       </c>
-      <c r="K90" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="L90" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="M90" s="58" t="s">
-        <v>356</v>
+      <c r="K90" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L90" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="M90" s="45" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>203</v>
+        <v>409</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E91" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F91" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="G91" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="60">
+      <c r="C91" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F91" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="47">
         <v>42156</v>
       </c>
-      <c r="I91" s="42"/>
-      <c r="J91" s="60">
+      <c r="I91" s="40"/>
+      <c r="J91" s="47">
         <v>42157</v>
       </c>
-      <c r="K91" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="L91" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="M91" s="58" t="s">
-        <v>358</v>
+      <c r="K91" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L91" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="M91" s="45" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="E92" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F92" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="G92" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" s="60">
+      <c r="C92" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G92" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="47">
         <v>42156</v>
       </c>
-      <c r="I92" s="42"/>
-      <c r="J92" s="60">
+      <c r="I92" s="40"/>
+      <c r="J92" s="47">
         <v>42157</v>
       </c>
-      <c r="K92" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="L92" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="M92" s="58" t="s">
-        <v>360</v>
+      <c r="K92" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L92" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="M92" s="45" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>205</v>
+        <v>411</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="58" t="s">
+      <c r="C93" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G93" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="47">
+        <v>42156</v>
+      </c>
+      <c r="I93" s="40"/>
+      <c r="J93" s="47">
+        <v>42157</v>
+      </c>
+      <c r="K93" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="L93" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="M93" s="45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F94" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="66">
+        <v>42153</v>
+      </c>
+      <c r="I94" s="45"/>
+      <c r="J94" s="66">
+        <v>42154</v>
+      </c>
+      <c r="K94" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L94" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="M94" s="45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F95" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="66">
+        <v>42155</v>
+      </c>
+      <c r="I95" s="45"/>
+      <c r="J95" s="66">
+        <v>42125</v>
+      </c>
+      <c r="K95" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="L95" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="M95" s="45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F96" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="66">
+        <v>42155</v>
+      </c>
+      <c r="I96" s="45"/>
+      <c r="J96" s="66">
+        <v>42125</v>
+      </c>
+      <c r="K96" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L96" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="M96" s="45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F97" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="66">
+        <v>42156</v>
+      </c>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66">
+        <v>42158</v>
+      </c>
+      <c r="K97" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L97" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M97" s="45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F98" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="66">
+        <v>42157</v>
+      </c>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66">
+        <v>42159</v>
+      </c>
+      <c r="K98" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L98" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="M98" s="45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F99" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="66">
+        <v>42160</v>
+      </c>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66">
+        <v>42161</v>
+      </c>
+      <c r="K99" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L99" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="M99" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="66">
+        <v>42162</v>
+      </c>
+      <c r="I100" s="66"/>
+      <c r="J100" s="66">
+        <v>42163</v>
+      </c>
+      <c r="K100" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L100" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="M100" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="66">
+        <v>42162</v>
+      </c>
+      <c r="I101" s="66"/>
+      <c r="J101" s="66">
+        <v>42163</v>
+      </c>
+      <c r="K101" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L101" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="M101" s="45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F102" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G102" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="66">
+        <v>42164</v>
+      </c>
+      <c r="I102" s="45"/>
+      <c r="J102" s="66">
+        <v>42165</v>
+      </c>
+      <c r="K102" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L102" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="M102" s="45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F103" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="66">
+        <v>42166</v>
+      </c>
+      <c r="I103" s="45"/>
+      <c r="J103" s="66">
+        <v>42167</v>
+      </c>
+      <c r="K103" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L103" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="M103" s="45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F104" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G104" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="66">
+        <v>42168</v>
+      </c>
+      <c r="I104" s="45"/>
+      <c r="J104" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K104" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L104" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="M104" s="45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F105" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="66">
+        <v>42170</v>
+      </c>
+      <c r="I105" s="45"/>
+      <c r="J105" s="66">
+        <v>42171</v>
+      </c>
+      <c r="K105" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L105" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="M105" s="45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F106" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G106" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="66">
+        <v>42172</v>
+      </c>
+      <c r="I106" s="45"/>
+      <c r="J106" s="66">
+        <v>42173</v>
+      </c>
+      <c r="K106" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L106" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="M106" s="45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="F107" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G107" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I107" s="45"/>
+      <c r="J107" s="66">
+        <v>42153</v>
+      </c>
+      <c r="K107" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L107" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M107" s="45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F108" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G108" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I108" s="45"/>
+      <c r="J108" s="66">
+        <v>42153</v>
+      </c>
+      <c r="K108" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L108" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M108" s="45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F109" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G109" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I109" s="45"/>
+      <c r="J109" s="66">
+        <v>42153</v>
+      </c>
+      <c r="K109" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L109" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M109" s="45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G110" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="66">
+        <v>42153</v>
+      </c>
+      <c r="I110" s="45"/>
+      <c r="J110" s="66">
+        <v>42154</v>
+      </c>
+      <c r="K110" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L110" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="M110" s="45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E111" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="F111" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G111" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="66">
+        <v>42153</v>
+      </c>
+      <c r="I111" s="45"/>
+      <c r="J111" s="66">
+        <v>42154</v>
+      </c>
+      <c r="K111" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L111" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="M111" s="45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E112" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H112" s="66">
+        <v>42151</v>
+      </c>
+      <c r="I112" s="45"/>
+      <c r="J112" s="66">
+        <v>42151</v>
+      </c>
+      <c r="K112" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="L112" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="M112" s="45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E113" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F113" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="66">
+        <v>42151</v>
+      </c>
+      <c r="I113" s="45"/>
+      <c r="J113" s="66">
+        <v>42151</v>
+      </c>
+      <c r="K113" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="L113" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="M113" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E114" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F114" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="66">
+        <v>42151</v>
+      </c>
+      <c r="I114" s="45"/>
+      <c r="J114" s="66">
+        <v>42151</v>
+      </c>
+      <c r="K114" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L114" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M114" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E115" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F115" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I115" s="45"/>
+      <c r="J115" s="66">
+        <v>42152</v>
+      </c>
+      <c r="K115" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L115" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M115" s="45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F116" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I116" s="45"/>
+      <c r="J116" s="66">
+        <v>42152</v>
+      </c>
+      <c r="K116" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L116" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="M116" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="E93" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F93" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="G93" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="60">
-        <v>42156</v>
-      </c>
-      <c r="I93" s="42"/>
-      <c r="J93" s="60">
-        <v>42157</v>
-      </c>
-      <c r="K93" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="L93" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="M93" s="58" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>15</v>
+    </row>
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E117" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F117" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I117" s="45"/>
+      <c r="J117" s="66">
+        <v>42152</v>
+      </c>
+      <c r="K117" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L117" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M117" s="45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E118" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F118" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I118" s="45"/>
+      <c r="J118" s="66">
+        <v>42152</v>
+      </c>
+      <c r="K118" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L118" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="M118" s="45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F119" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H119" s="66">
+        <v>42152</v>
+      </c>
+      <c r="I119" s="45"/>
+      <c r="J119" s="66">
+        <v>42152</v>
+      </c>
+      <c r="K119" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="L119" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M119" s="45" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6188,7 +7302,7 @@
     <mergeCell ref="J5:M5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G33 G54:G93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G33 G54:G93 G117">
       <formula1>$Q$19:$Q$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G43">
